--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A11AE38-5C14-4373-AAF7-8A3B2956E044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD2D3AE-E7C6-464B-89D5-F4B2591BC0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2090" yWindow="30" windowWidth="19640" windowHeight="20480" activeTab="1" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
+    <workbookView xWindow="3530" yWindow="140" windowWidth="19640" windowHeight="20480" activeTab="1" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -352,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -445,15 +445,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1629,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9F7A41-D1C8-40CA-B4D4-A4E7F54E7CAD}">
   <dimension ref="A1:BN56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2306,6 +2307,7 @@
       <c r="Z12" s="25"/>
       <c r="AA12" s="26"/>
       <c r="AB12" s="27"/>
+      <c r="AN12" s="28"/>
     </row>
     <row r="13" spans="1:66" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -2321,6 +2323,9 @@
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
       <c r="Q13" s="27"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367B7672-D9AB-4870-A8ED-A564612C9EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE714FFC-982F-4AF0-BBD2-18AE98706282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
@@ -885,7 +885,7 @@
   <dimension ref="A1:DY57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CE14" sqref="CE14"/>
+      <selection activeCell="BH12" sqref="BH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2142,7 +2142,7 @@
       <c r="K12" s="44"/>
       <c r="AN12" s="46"/>
       <c r="AX12" s="57"/>
-      <c r="AY12" s="28"/>
+      <c r="AY12" s="9"/>
       <c r="AZ12" s="29"/>
     </row>
     <row r="13" spans="1:129" ht="58" x14ac:dyDescent="0.35">

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE714FFC-982F-4AF0-BBD2-18AE98706282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D866BFB-C585-4789-9FC2-1AC708A31CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
+    <workbookView xWindow="3530" yWindow="140" windowWidth="19640" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -885,7 +885,7 @@
   <dimension ref="A1:DY57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BH12" sqref="BH12"/>
+      <selection activeCell="BB13" sqref="BB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2143,7 +2143,7 @@
       <c r="AN12" s="46"/>
       <c r="AX12" s="57"/>
       <c r="AY12" s="9"/>
-      <c r="AZ12" s="29"/>
+      <c r="AZ12" s="10"/>
     </row>
     <row r="13" spans="1:129" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D866BFB-C585-4789-9FC2-1AC708A31CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC22B25-B475-433C-B31E-690EBD0B4EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3530" yWindow="140" windowWidth="19640" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -885,7 +885,7 @@
   <dimension ref="A1:DY57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BB13" sqref="BB13"/>
+      <selection activeCell="BW14" sqref="BW14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2144,6 +2144,7 @@
       <c r="AX12" s="57"/>
       <c r="AY12" s="9"/>
       <c r="AZ12" s="10"/>
+      <c r="BA12" s="23"/>
     </row>
     <row r="13" spans="1:129" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC22B25-B475-433C-B31E-690EBD0B4EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDDF7FB-28B1-4006-9058-333F4EB72DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
@@ -885,7 +885,7 @@
   <dimension ref="A1:DY57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BW14" sqref="BW14"/>
+      <selection activeCell="BF12" sqref="BF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2145,6 +2145,9 @@
       <c r="AY12" s="9"/>
       <c r="AZ12" s="10"/>
       <c r="BA12" s="23"/>
+      <c r="BB12" s="23"/>
+      <c r="BC12" s="23"/>
+      <c r="BD12" s="23"/>
     </row>
     <row r="13" spans="1:129" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDDF7FB-28B1-4006-9058-333F4EB72DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9F5BE2-3CAB-4128-AAD7-B054A642B629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
@@ -339,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -447,11 +447,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -568,6 +588,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,7 +910,7 @@
   <dimension ref="A1:DY57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BF12" sqref="BF12"/>
+      <selection activeCell="BR13" sqref="BR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2110,7 +2135,7 @@
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="J11" s="42"/>
@@ -2119,10 +2144,10 @@
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
       <c r="O11" s="44"/>
-      <c r="AZ11" s="27"/>
-      <c r="BA11" s="28"/>
-      <c r="BB11" s="28"/>
-      <c r="BC11" s="29"/>
+      <c r="AZ11" s="58"/>
+      <c r="BA11" s="59"/>
+      <c r="BB11" s="59"/>
+      <c r="BC11" s="60"/>
     </row>
     <row r="12" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -2131,11 +2156,13 @@
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="56">
         <v>45020</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="56">
+        <v>45038</v>
+      </c>
       <c r="H12" s="42"/>
       <c r="I12" s="43"/>
       <c r="J12" s="43"/>
@@ -2143,11 +2170,12 @@
       <c r="AN12" s="46"/>
       <c r="AX12" s="57"/>
       <c r="AY12" s="9"/>
-      <c r="AZ12" s="10"/>
-      <c r="BA12" s="23"/>
-      <c r="BB12" s="23"/>
-      <c r="BC12" s="23"/>
-      <c r="BD12" s="23"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="61"/>
+      <c r="BB12" s="61"/>
+      <c r="BC12" s="61"/>
+      <c r="BD12" s="61"/>
+      <c r="BE12" s="62"/>
     </row>
     <row r="13" spans="1:129" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -2189,6 +2217,7 @@
       <c r="AZ14" s="48"/>
       <c r="BC14" s="27"/>
       <c r="BD14" s="29"/>
+      <c r="BE14" s="11"/>
     </row>
     <row r="15" spans="1:129" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9F5BE2-3CAB-4128-AAD7-B054A642B629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEABF24E-1637-4441-A0E0-982E982D4D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9F7A41-D1C8-40CA-B4D4-A4E7F54E7CAD}">
   <dimension ref="A1:DY57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BR13" sqref="BR13"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DB21" sqref="DB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2148,6 +2148,7 @@
       <c r="BA11" s="59"/>
       <c r="BB11" s="59"/>
       <c r="BC11" s="60"/>
+      <c r="BF11" s="11"/>
     </row>
     <row r="12" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -2218,6 +2219,7 @@
       <c r="BC14" s="27"/>
       <c r="BD14" s="29"/>
       <c r="BE14" s="11"/>
+      <c r="BF14" s="11"/>
     </row>
     <row r="15" spans="1:129" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEABF24E-1637-4441-A0E0-982E982D4D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885D959C-39FA-493C-B16A-5E565B5D4D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9F7A41-D1C8-40CA-B4D4-A4E7F54E7CAD}">
   <dimension ref="A1:DY57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="DB21" sqref="DB21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BM13" sqref="BM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2149,6 +2149,11 @@
       <c r="BB11" s="59"/>
       <c r="BC11" s="60"/>
       <c r="BF11" s="11"/>
+      <c r="BJ11" s="11"/>
+      <c r="BK11" s="11"/>
+      <c r="BL11" s="11"/>
+      <c r="BM11" s="11"/>
+      <c r="BN11" s="11"/>
     </row>
     <row r="12" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885D959C-39FA-493C-B16A-5E565B5D4D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4F8746-A173-4AE8-9728-2CB0130FAA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
+    <workbookView xWindow="3530" yWindow="140" windowWidth="19640" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -910,7 +910,7 @@
   <dimension ref="A1:DY57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BM13" sqref="BM13"/>
+      <selection activeCell="BP11" sqref="BP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2154,6 +2154,7 @@
       <c r="BL11" s="11"/>
       <c r="BM11" s="11"/>
       <c r="BN11" s="11"/>
+      <c r="BO11" s="11"/>
     </row>
     <row r="12" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4F8746-A173-4AE8-9728-2CB0130FAA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53147046-110F-447A-835A-0AE1FED36696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3530" yWindow="140" windowWidth="19640" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -591,8 +591,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9F7A41-D1C8-40CA-B4D4-A4E7F54E7CAD}">
   <dimension ref="A1:DY57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BP11" sqref="BP11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BP15" sqref="BP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2155,6 +2153,7 @@
       <c r="BM11" s="11"/>
       <c r="BN11" s="11"/>
       <c r="BO11" s="11"/>
+      <c r="BP11" s="11"/>
     </row>
     <row r="12" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -2178,11 +2177,11 @@
       <c r="AX12" s="57"/>
       <c r="AY12" s="9"/>
       <c r="AZ12" s="9"/>
-      <c r="BA12" s="61"/>
-      <c r="BB12" s="61"/>
-      <c r="BC12" s="61"/>
-      <c r="BD12" s="61"/>
-      <c r="BE12" s="62"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="10"/>
     </row>
     <row r="13" spans="1:129" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53147046-110F-447A-835A-0AE1FED36696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A118BC8C-CDCD-473F-BAD9-B7F61C1EC00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3530" yWindow="140" windowWidth="19640" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -591,6 +591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,7 +909,7 @@
   <dimension ref="A1:DY57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BP15" sqref="BP15"/>
+      <selection activeCell="BF11" sqref="BF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2154,6 +2155,8 @@
       <c r="BN11" s="11"/>
       <c r="BO11" s="11"/>
       <c r="BP11" s="11"/>
+      <c r="BQ11" s="61"/>
+      <c r="BR11" s="11"/>
     </row>
     <row r="12" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A118BC8C-CDCD-473F-BAD9-B7F61C1EC00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5A4FA-24D5-4855-94AC-C7F25507F173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3530" yWindow="140" windowWidth="19640" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
+    <workbookView xWindow="3530" yWindow="140" windowWidth="22980" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -591,7 +591,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9F7A41-D1C8-40CA-B4D4-A4E7F54E7CAD}">
   <dimension ref="A1:DY57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BF11" sqref="BF11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX12" sqref="AX12:BE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2155,8 +2154,8 @@
       <c r="BN11" s="11"/>
       <c r="BO11" s="11"/>
       <c r="BP11" s="11"/>
-      <c r="BQ11" s="61"/>
       <c r="BR11" s="11"/>
+      <c r="BS11" s="11"/>
     </row>
     <row r="12" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5A4FA-24D5-4855-94AC-C7F25507F173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38806F68-CD70-49DC-8C8A-72E85473B193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3530" yWindow="140" windowWidth="22980" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
   <si>
     <t>Individual Project</t>
   </si>
@@ -191,10 +191,16 @@
     <t>IN3005 Deadline</t>
   </si>
   <si>
-    <t>Code Submission</t>
-  </si>
-  <si>
-    <t>Final Report</t>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t>Other Coursework</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Final</t>
   </si>
 </sst>
 </file>
@@ -265,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,12 +328,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -410,68 +410,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -529,9 +472,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -544,38 +484,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -588,9 +506,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9F7A41-D1C8-40CA-B4D4-A4E7F54E7CAD}">
-  <dimension ref="A1:DY57"/>
+  <dimension ref="A1:DY56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX12" sqref="AX12:BE12"/>
+      <selection activeCell="CB10" sqref="CB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -922,23 +866,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:129" ht="31" x14ac:dyDescent="0.7">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="CB1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="CB1" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="CY1" s="54" t="s">
+      <c r="CN1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="DF1" s="54" t="s">
-        <v>52</v>
+      <c r="CY1" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="DB1" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="DF1" s="41" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:129" ht="26" x14ac:dyDescent="0.6">
@@ -946,20 +892,22 @@
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="51"/>
+      <c r="Q2" s="53"/>
       <c r="AK2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AW2" s="51"/>
+      <c r="AW2" s="53"/>
       <c r="BO2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="CB2" s="51"/>
+      <c r="CB2" s="38"/>
+      <c r="CN2" s="45"/>
       <c r="CT2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CY2" s="50"/>
-      <c r="DF2" s="50"/>
+      <c r="CY2" s="37"/>
+      <c r="DB2" s="45"/>
+      <c r="DF2" s="37"/>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.35">
       <c r="F3">
@@ -1330,19 +1278,19 @@
       </c>
     </row>
     <row r="4" spans="1:129" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="42" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1805,87 +1753,104 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="41"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="33"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="30"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="41"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="53"/>
+      <c r="AN6" s="40"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
-      <c r="AR6" s="40"/>
-      <c r="AS6" s="45"/>
-      <c r="AT6" s="45"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="45"/>
-      <c r="AX6" s="45"/>
-      <c r="AY6" s="45"/>
-      <c r="AZ6" s="45"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="45"/>
-      <c r="BC6" s="45"/>
-      <c r="BD6" s="45"/>
-      <c r="BE6" s="45"/>
-      <c r="BF6" s="34"/>
-      <c r="BG6" s="35"/>
-      <c r="BH6" s="45"/>
-      <c r="BI6" s="41"/>
-      <c r="BJ6" s="2"/>
-      <c r="BK6" s="2"/>
-      <c r="BL6" s="2"/>
-      <c r="BM6" s="34"/>
-      <c r="BN6" s="35"/>
-      <c r="BT6" s="27"/>
-      <c r="BU6" s="29"/>
-      <c r="CA6" s="27"/>
-      <c r="CB6" s="29"/>
-      <c r="CH6" s="27"/>
-      <c r="CI6" s="28"/>
-      <c r="CJ6" s="28"/>
-      <c r="CK6" s="28"/>
-      <c r="CL6" s="28"/>
-      <c r="CM6" s="28"/>
-      <c r="CN6" s="28"/>
-      <c r="CO6" s="28"/>
-      <c r="CP6" s="28"/>
-      <c r="CQ6" s="28"/>
-      <c r="CR6" s="28"/>
-      <c r="CS6" s="28"/>
-      <c r="CT6" s="28"/>
-      <c r="CU6" s="28"/>
-      <c r="CV6" s="28"/>
-      <c r="CW6" s="28"/>
-      <c r="CX6" s="28"/>
-      <c r="CY6" s="28"/>
-      <c r="CZ6" s="28"/>
-      <c r="DA6" s="28"/>
-      <c r="DB6" s="28"/>
-      <c r="DC6" s="28"/>
-      <c r="DD6" s="28"/>
-      <c r="DE6" s="28"/>
-      <c r="DF6" s="29"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="47"/>
+      <c r="AT6" s="47"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="47"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="47"/>
+      <c r="AY6" s="29"/>
+      <c r="AZ6" s="30"/>
+      <c r="BA6" s="47"/>
+      <c r="BB6" s="47"/>
+      <c r="BC6" s="47"/>
+      <c r="BD6" s="47"/>
+      <c r="BE6" s="29"/>
+      <c r="BF6" s="30"/>
+      <c r="BG6" s="47"/>
+      <c r="BH6" s="47"/>
+      <c r="BI6" s="47"/>
+      <c r="BJ6" s="47"/>
+      <c r="BK6" s="47"/>
+      <c r="BL6" s="47"/>
+      <c r="BM6" s="29"/>
+      <c r="BN6" s="30"/>
+      <c r="BO6" s="46"/>
+      <c r="BP6" s="46"/>
+      <c r="BQ6" s="46"/>
+      <c r="BR6" s="54"/>
+      <c r="BS6" s="55"/>
+      <c r="BT6" s="56"/>
+      <c r="BU6" s="46"/>
+      <c r="BV6" s="46"/>
+      <c r="BW6" s="46"/>
+      <c r="BX6" s="46"/>
+      <c r="BY6" s="46"/>
+      <c r="BZ6" s="46"/>
+      <c r="CA6" s="46"/>
+      <c r="CB6" s="46"/>
+      <c r="CC6" s="46"/>
+      <c r="CD6" s="46"/>
+      <c r="CE6" s="46"/>
+      <c r="CF6" s="46"/>
+      <c r="CG6" s="46"/>
+      <c r="CH6" s="46"/>
+      <c r="CI6" s="46"/>
+      <c r="CJ6" s="46"/>
+      <c r="CK6" s="46"/>
+      <c r="CL6" s="46"/>
+      <c r="CM6" s="46"/>
+      <c r="CN6" s="46"/>
+      <c r="CO6" s="46"/>
+      <c r="CP6" s="46"/>
+      <c r="CQ6" s="46"/>
+      <c r="CR6" s="46"/>
+      <c r="CS6" s="46"/>
+      <c r="CT6" s="46"/>
+      <c r="CU6" s="46"/>
+      <c r="CV6" s="46"/>
+      <c r="CW6" s="46"/>
+      <c r="CX6" s="46"/>
+      <c r="CY6" s="46"/>
+      <c r="CZ6" s="46"/>
+      <c r="DA6" s="46"/>
+      <c r="DB6" s="46"/>
+      <c r="DC6" s="46"/>
+      <c r="DD6" s="46"/>
+      <c r="DE6" s="46"/>
+      <c r="DF6" s="46"/>
+      <c r="DG6" s="46"/>
+      <c r="DH6" s="46"/>
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.35">
       <c r="C7" s="6"/>
@@ -1952,1257 +1917,1508 @@
       <c r="BN7" s="2"/>
     </row>
     <row r="8" spans="1:129" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="39"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38"/>
-      <c r="AM8" s="39"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="38"/>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="38"/>
-      <c r="AT8" s="38"/>
-      <c r="AU8" s="38"/>
-      <c r="AV8" s="38"/>
-      <c r="AW8" s="39"/>
-    </row>
-    <row r="9" spans="1:129" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:129" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="11"/>
-      <c r="AT10" s="11"/>
-      <c r="AU10" s="11"/>
-      <c r="AV10" s="11"/>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
-      <c r="AY10" s="11"/>
-      <c r="AZ10" s="11"/>
-      <c r="BA10" s="11"/>
-      <c r="BB10" s="11"/>
-      <c r="BC10" s="11"/>
-      <c r="BD10" s="11"/>
-      <c r="BE10" s="11"/>
-      <c r="BF10" s="11"/>
-      <c r="BG10" s="11"/>
-      <c r="BH10" s="11"/>
-      <c r="BI10" s="11"/>
-      <c r="BJ10" s="11"/>
-      <c r="BK10" s="11"/>
-      <c r="BL10" s="11"/>
-      <c r="BM10" s="11"/>
-      <c r="BN10" s="11"/>
-      <c r="BO10" s="11"/>
-      <c r="BP10" s="11"/>
-      <c r="BQ10" s="11"/>
-      <c r="BR10" s="11"/>
-      <c r="BS10" s="11"/>
-      <c r="BT10" s="11"/>
-      <c r="BU10" s="11"/>
-      <c r="BV10" s="11"/>
-      <c r="BW10" s="11"/>
-      <c r="BX10" s="11"/>
-      <c r="BY10" s="11"/>
-      <c r="BZ10" s="11"/>
-      <c r="CA10" s="11"/>
-      <c r="CB10" s="11"/>
-      <c r="CC10" s="11"/>
-      <c r="CD10" s="11"/>
-      <c r="CE10" s="11"/>
-      <c r="CF10" s="11"/>
-      <c r="CG10" s="11"/>
-      <c r="CH10" s="11"/>
-      <c r="CI10" s="11"/>
-      <c r="CJ10" s="11"/>
-      <c r="CK10" s="11"/>
-      <c r="CL10" s="11"/>
-      <c r="CM10" s="11"/>
-      <c r="CN10" s="11"/>
-      <c r="CO10" s="11"/>
-      <c r="CP10" s="11"/>
-      <c r="CQ10" s="11"/>
-      <c r="CR10" s="11"/>
-      <c r="CS10" s="11"/>
-      <c r="CT10" s="11"/>
-      <c r="CU10" s="11"/>
-      <c r="CV10" s="11"/>
-      <c r="CW10" s="11"/>
-      <c r="CX10" s="11"/>
-      <c r="CY10" s="11"/>
-      <c r="CZ10" s="11"/>
-      <c r="DA10" s="11"/>
-      <c r="DB10" s="11"/>
-      <c r="DC10" s="11"/>
-      <c r="DD10" s="11"/>
-      <c r="DE10" s="11"/>
-      <c r="DF10" s="11"/>
-      <c r="DG10" s="11"/>
-      <c r="DH10" s="11"/>
-      <c r="DI10" s="11"/>
-      <c r="DJ10" s="11"/>
-      <c r="DK10" s="11"/>
-      <c r="DL10" s="11"/>
-      <c r="DM10" s="11"/>
-      <c r="DN10" s="11"/>
-      <c r="DO10" s="11"/>
-      <c r="DP10" s="11"/>
-      <c r="DQ10" s="11"/>
-      <c r="DR10" s="11"/>
-      <c r="DS10" s="11"/>
-      <c r="DT10" s="11"/>
-      <c r="DU10" s="11"/>
-      <c r="DV10" s="11"/>
-      <c r="DW10" s="11"/>
-    </row>
-    <row r="11" spans="1:129" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
+      <c r="BE8" s="11"/>
+      <c r="BF8" s="11"/>
+      <c r="BG8" s="11"/>
+      <c r="BH8" s="11"/>
+      <c r="BI8" s="11"/>
+      <c r="BJ8" s="11"/>
+      <c r="BK8" s="11"/>
+      <c r="BL8" s="11"/>
+      <c r="BM8" s="11"/>
+      <c r="BN8" s="11"/>
+      <c r="BO8" s="11"/>
+      <c r="BP8" s="11"/>
+      <c r="BQ8" s="11"/>
+      <c r="BR8" s="11"/>
+      <c r="BS8" s="11"/>
+      <c r="BT8" s="11"/>
+      <c r="BU8" s="11"/>
+      <c r="BV8" s="11"/>
+      <c r="BW8" s="11"/>
+      <c r="BX8" s="11"/>
+      <c r="BY8" s="11"/>
+      <c r="BZ8" s="11"/>
+      <c r="CA8" s="11"/>
+      <c r="CB8" s="11"/>
+      <c r="CC8" s="11"/>
+      <c r="CD8" s="11"/>
+      <c r="CE8" s="11"/>
+      <c r="CF8" s="11"/>
+      <c r="CG8" s="11"/>
+      <c r="CH8" s="11"/>
+      <c r="CI8" s="11"/>
+      <c r="CJ8" s="11"/>
+      <c r="CK8" s="11"/>
+      <c r="CL8" s="11"/>
+      <c r="CM8" s="11"/>
+      <c r="CN8" s="11"/>
+      <c r="CO8" s="11"/>
+      <c r="CP8" s="11"/>
+      <c r="CQ8" s="11"/>
+      <c r="CR8" s="11"/>
+      <c r="CS8" s="11"/>
+      <c r="CT8" s="11"/>
+      <c r="CU8" s="11"/>
+      <c r="CV8" s="11"/>
+      <c r="CW8" s="11"/>
+      <c r="CX8" s="11"/>
+      <c r="CY8" s="11"/>
+      <c r="CZ8" s="11"/>
+      <c r="DA8" s="11"/>
+      <c r="DB8" s="11"/>
+      <c r="DC8" s="11"/>
+      <c r="DD8" s="11"/>
+      <c r="DE8" s="11"/>
+      <c r="DF8" s="11"/>
+      <c r="DG8" s="11"/>
+      <c r="DH8" s="11"/>
+      <c r="DI8" s="11"/>
+      <c r="DJ8" s="11"/>
+      <c r="DK8" s="11"/>
+      <c r="DL8" s="11"/>
+      <c r="DM8" s="11"/>
+      <c r="DN8" s="11"/>
+      <c r="DO8" s="11"/>
+      <c r="DP8" s="11"/>
+      <c r="DQ8" s="11"/>
+      <c r="DR8" s="11"/>
+      <c r="DS8" s="11"/>
+      <c r="DT8" s="11"/>
+      <c r="DU8" s="11"/>
+      <c r="DV8" s="11"/>
+      <c r="DW8" s="11"/>
+    </row>
+    <row r="9" spans="1:129" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="43">
+        <v>45038</v>
+      </c>
+      <c r="E9" s="43">
+        <v>45051</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="46"/>
+      <c r="BB9" s="46"/>
+      <c r="BC9" s="46"/>
+      <c r="BF9" s="35"/>
+      <c r="BJ9" s="44"/>
+      <c r="BK9" s="9"/>
+      <c r="BL9" s="9"/>
+      <c r="BM9" s="9"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="10"/>
+      <c r="BR9" s="44"/>
+      <c r="BS9" s="10"/>
+    </row>
+    <row r="10" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="43">
+        <v>45020</v>
+      </c>
+      <c r="E10" s="43">
+        <v>45037</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="AN10" s="35"/>
+      <c r="AX10" s="44"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="10"/>
+    </row>
+    <row r="11" spans="1:129" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44"/>
-      <c r="AZ11" s="58"/>
-      <c r="BA11" s="59"/>
-      <c r="BB11" s="59"/>
-      <c r="BC11" s="60"/>
-      <c r="BF11" s="11"/>
-      <c r="BJ11" s="11"/>
-      <c r="BK11" s="11"/>
-      <c r="BL11" s="11"/>
-      <c r="BM11" s="11"/>
-      <c r="BN11" s="11"/>
-      <c r="BO11" s="11"/>
-      <c r="BP11" s="11"/>
-      <c r="BR11" s="11"/>
-      <c r="BS11" s="11"/>
-    </row>
-    <row r="12" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="43">
+        <v>45006</v>
+      </c>
+      <c r="E11" s="43">
+        <v>45008</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="10"/>
+    </row>
+    <row r="12" spans="1:129" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="56">
-        <v>45020</v>
-      </c>
-      <c r="E12" s="56">
-        <v>45038</v>
-      </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="44"/>
-      <c r="AN12" s="46"/>
-      <c r="AX12" s="57"/>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="9"/>
-      <c r="BA12" s="9"/>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="9"/>
-      <c r="BE12" s="10"/>
-    </row>
-    <row r="13" spans="1:129" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="56">
+        <v>19</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="43">
         <v>45006</v>
       </c>
-      <c r="E13" s="56">
-        <v>45008</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="10"/>
-    </row>
-    <row r="14" spans="1:129" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="E12" s="43">
+        <v>45051</v>
+      </c>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="Z12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AZ12" s="46"/>
+      <c r="BC12" s="46"/>
+      <c r="BD12" s="46"/>
+      <c r="BE12" s="44"/>
+      <c r="BF12" s="10"/>
+      <c r="BR12" s="44"/>
+      <c r="BS12" s="10"/>
+    </row>
+    <row r="13" spans="1:129" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:129" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="8"/>
+      <c r="BC14" s="8"/>
+      <c r="BD14" s="8"/>
+      <c r="BE14" s="8"/>
+      <c r="BF14" s="8"/>
+      <c r="BG14" s="8"/>
+      <c r="BH14" s="8"/>
+      <c r="BI14" s="8"/>
+      <c r="BJ14" s="8"/>
+      <c r="BK14" s="8"/>
+      <c r="BL14" s="8"/>
+      <c r="BM14" s="8"/>
+      <c r="BN14" s="8"/>
+      <c r="BO14" s="8"/>
+      <c r="BP14" s="8"/>
+      <c r="BQ14" s="8"/>
+      <c r="BR14" s="8"/>
+      <c r="BS14" s="8"/>
+      <c r="BT14" s="8"/>
+      <c r="BU14" s="8"/>
+      <c r="BV14" s="8"/>
+      <c r="BW14" s="8"/>
+      <c r="BX14" s="8"/>
+      <c r="BY14" s="8"/>
+      <c r="BZ14" s="8"/>
+      <c r="CA14" s="8"/>
+      <c r="CB14" s="8"/>
+      <c r="CC14" s="8"/>
+      <c r="CD14" s="8"/>
+      <c r="CE14" s="8"/>
+      <c r="CF14" s="8"/>
+      <c r="CG14" s="8"/>
+      <c r="CH14" s="8"/>
+      <c r="CI14" s="8"/>
+      <c r="CJ14" s="8"/>
+      <c r="CK14" s="8"/>
+      <c r="CL14" s="8"/>
+      <c r="CM14" s="8"/>
+      <c r="CN14" s="8"/>
+      <c r="CO14" s="8"/>
+      <c r="CP14" s="8"/>
+      <c r="CQ14" s="8"/>
+      <c r="CR14" s="8"/>
+      <c r="CS14" s="8"/>
+      <c r="CT14" s="8"/>
+      <c r="CU14" s="8"/>
+      <c r="CV14" s="8"/>
+      <c r="CW14" s="8"/>
+      <c r="CX14" s="8"/>
+      <c r="CY14" s="8"/>
+      <c r="CZ14" s="8"/>
+      <c r="DA14" s="8"/>
+      <c r="DB14" s="8"/>
+      <c r="DC14" s="8"/>
+      <c r="DD14" s="8"/>
+      <c r="DE14" s="8"/>
+      <c r="DF14" s="8"/>
+      <c r="DG14" s="8"/>
+      <c r="DH14" s="8"/>
+      <c r="DI14" s="8"/>
+      <c r="DJ14" s="8"/>
+      <c r="DK14" s="8"/>
+      <c r="DL14" s="8"/>
+      <c r="DM14" s="8"/>
+      <c r="DN14" s="8"/>
+      <c r="DO14" s="8"/>
+      <c r="DP14" s="8"/>
+      <c r="DQ14" s="8"/>
+      <c r="DR14" s="8"/>
+      <c r="DS14" s="8"/>
+      <c r="DT14" s="8"/>
+      <c r="DU14" s="8"/>
+      <c r="DV14" s="8"/>
+      <c r="DW14" s="8"/>
+    </row>
+    <row r="15" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="BE15" s="46"/>
+      <c r="BF15" s="46"/>
+      <c r="BG15" s="46"/>
+      <c r="BH15" s="46"/>
+      <c r="BI15" s="46"/>
+      <c r="BU15" s="57"/>
+      <c r="BV15" s="58"/>
+      <c r="BW15" s="59"/>
+      <c r="BX15" s="53"/>
+      <c r="BY15" s="53"/>
+      <c r="BZ15" s="53"/>
+    </row>
+    <row r="16" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="BH16" s="46"/>
+      <c r="BI16" s="46"/>
+      <c r="BJ16" s="46"/>
+      <c r="BK16" s="46"/>
+      <c r="BL16" s="46"/>
+      <c r="BM16" s="46"/>
+      <c r="BN16" s="46"/>
+      <c r="BW16" s="57"/>
+      <c r="BX16" s="58"/>
+      <c r="BY16" s="58"/>
+      <c r="BZ16" s="59"/>
+      <c r="CA16" s="53"/>
+      <c r="CB16" s="53"/>
+      <c r="CC16" s="53"/>
+      <c r="CD16" s="53"/>
+      <c r="CE16" s="53"/>
+      <c r="CF16" s="53"/>
+      <c r="CG16" s="53"/>
+    </row>
+    <row r="17" spans="1:127" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="44"/>
-      <c r="Z14" s="46"/>
-      <c r="AN14" s="46"/>
-      <c r="AZ14" s="48"/>
-      <c r="BC14" s="27"/>
-      <c r="BD14" s="29"/>
-      <c r="BE14" s="11"/>
-      <c r="BF14" s="11"/>
-    </row>
-    <row r="15" spans="1:129" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:129" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="8"/>
-      <c r="AO16" s="8"/>
-      <c r="AP16" s="8"/>
-      <c r="AQ16" s="8"/>
-      <c r="AR16" s="8"/>
-      <c r="AS16" s="8"/>
-      <c r="AT16" s="8"/>
-      <c r="AU16" s="8"/>
-      <c r="AV16" s="8"/>
-      <c r="AW16" s="8"/>
-      <c r="AX16" s="8"/>
-      <c r="AY16" s="8"/>
-      <c r="AZ16" s="8"/>
-      <c r="BA16" s="8"/>
-      <c r="BB16" s="8"/>
-      <c r="BC16" s="8"/>
-      <c r="BD16" s="8"/>
-      <c r="BE16" s="8"/>
-      <c r="BF16" s="8"/>
-      <c r="BG16" s="8"/>
-      <c r="BH16" s="8"/>
-      <c r="BI16" s="8"/>
-      <c r="BJ16" s="8"/>
-      <c r="BK16" s="8"/>
-      <c r="BL16" s="8"/>
-      <c r="BM16" s="8"/>
-      <c r="BN16" s="8"/>
-      <c r="BO16" s="8"/>
-      <c r="BP16" s="8"/>
-      <c r="BQ16" s="8"/>
-      <c r="BR16" s="8"/>
-      <c r="BS16" s="8"/>
-      <c r="BT16" s="8"/>
-      <c r="BU16" s="8"/>
-      <c r="BV16" s="8"/>
-      <c r="BW16" s="8"/>
-      <c r="BX16" s="8"/>
-      <c r="BY16" s="8"/>
-      <c r="BZ16" s="8"/>
-      <c r="CA16" s="8"/>
-      <c r="CB16" s="8"/>
-      <c r="CC16" s="8"/>
-      <c r="CD16" s="8"/>
-      <c r="CE16" s="8"/>
-      <c r="CF16" s="8"/>
-      <c r="CG16" s="8"/>
-      <c r="CH16" s="8"/>
-      <c r="CI16" s="8"/>
-      <c r="CJ16" s="8"/>
-      <c r="CK16" s="8"/>
-      <c r="CL16" s="8"/>
-      <c r="CM16" s="8"/>
-      <c r="CN16" s="8"/>
-      <c r="CO16" s="8"/>
-      <c r="CP16" s="8"/>
-      <c r="CQ16" s="8"/>
-      <c r="CR16" s="8"/>
-      <c r="CS16" s="8"/>
-      <c r="CT16" s="8"/>
-      <c r="CU16" s="8"/>
-      <c r="CV16" s="8"/>
-      <c r="CW16" s="8"/>
-      <c r="CX16" s="8"/>
-      <c r="CY16" s="8"/>
-      <c r="CZ16" s="8"/>
-      <c r="DA16" s="8"/>
-      <c r="DB16" s="8"/>
-      <c r="DC16" s="8"/>
-      <c r="DD16" s="8"/>
-      <c r="DE16" s="8"/>
-      <c r="DF16" s="8"/>
-      <c r="DG16" s="8"/>
-      <c r="DH16" s="8"/>
-      <c r="DI16" s="8"/>
-      <c r="DJ16" s="8"/>
-      <c r="DK16" s="8"/>
-      <c r="DL16" s="8"/>
-      <c r="DM16" s="8"/>
-      <c r="DN16" s="8"/>
-      <c r="DO16" s="8"/>
-      <c r="DP16" s="8"/>
-      <c r="DQ16" s="8"/>
-      <c r="DR16" s="8"/>
-      <c r="DS16" s="8"/>
-      <c r="DT16" s="8"/>
-      <c r="DU16" s="8"/>
-      <c r="DV16" s="8"/>
-      <c r="DW16" s="8"/>
-    </row>
-    <row r="17" spans="1:127" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="44"/>
-      <c r="BE17" s="27"/>
-      <c r="BF17" s="28"/>
-      <c r="BG17" s="28"/>
-      <c r="BH17" s="29"/>
-    </row>
-    <row r="18" spans="1:127" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="44"/>
-      <c r="BH18" s="27"/>
-      <c r="BI18" s="28"/>
-      <c r="BJ18" s="28"/>
-      <c r="BK18" s="29"/>
-    </row>
-    <row r="19" spans="1:127" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="BC17" s="46"/>
+      <c r="BD17" s="46"/>
+      <c r="BE17" s="46"/>
+      <c r="BF17" s="46"/>
+      <c r="BG17" s="46"/>
+      <c r="BH17" s="46"/>
+      <c r="BI17" s="46"/>
+      <c r="BJ17" s="46"/>
+      <c r="BK17" s="46"/>
+      <c r="BL17" s="46"/>
+      <c r="BM17" s="46"/>
+      <c r="BN17" s="46"/>
+      <c r="BO17" s="46"/>
+      <c r="BZ17" s="57"/>
+      <c r="CA17" s="59"/>
+    </row>
+    <row r="18" spans="1:127" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:127" x14ac:dyDescent="0.35">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
+      <c r="AO19" s="17"/>
+      <c r="AP19" s="17"/>
+      <c r="AQ19" s="17"/>
+      <c r="AR19" s="17"/>
+      <c r="AS19" s="17"/>
+      <c r="AT19" s="17"/>
+      <c r="AU19" s="17"/>
+      <c r="AV19" s="17"/>
+      <c r="AW19" s="17"/>
+      <c r="AX19" s="17"/>
+      <c r="AY19" s="17"/>
+      <c r="AZ19" s="17"/>
+      <c r="BA19" s="17"/>
+      <c r="BB19" s="17"/>
+      <c r="BC19" s="17"/>
+      <c r="BD19" s="17"/>
+      <c r="BE19" s="17"/>
+      <c r="BF19" s="17"/>
+      <c r="BG19" s="17"/>
+      <c r="BH19" s="17"/>
+      <c r="BI19" s="17"/>
+      <c r="BJ19" s="17"/>
+      <c r="BK19" s="17"/>
+      <c r="BL19" s="17"/>
+      <c r="BM19" s="17"/>
+      <c r="BN19" s="17"/>
+      <c r="BO19" s="17"/>
+      <c r="BP19" s="17"/>
+      <c r="BQ19" s="17"/>
+      <c r="BR19" s="17"/>
+      <c r="BS19" s="17"/>
+      <c r="BT19" s="17"/>
+      <c r="BU19" s="17"/>
+      <c r="BV19" s="17"/>
+      <c r="BW19" s="17"/>
+      <c r="BX19" s="17"/>
+      <c r="BY19" s="17"/>
+      <c r="BZ19" s="17"/>
+      <c r="CA19" s="17"/>
+      <c r="CB19" s="17"/>
+      <c r="CC19" s="17"/>
+      <c r="CD19" s="17"/>
+      <c r="CE19" s="17"/>
+      <c r="CF19" s="17"/>
+      <c r="CG19" s="17"/>
+      <c r="CH19" s="17"/>
+      <c r="CI19" s="17"/>
+      <c r="CJ19" s="17"/>
+      <c r="CK19" s="17"/>
+      <c r="CL19" s="17"/>
+      <c r="CM19" s="17"/>
+      <c r="CN19" s="17"/>
+      <c r="CO19" s="17"/>
+      <c r="CP19" s="17"/>
+      <c r="CQ19" s="17"/>
+      <c r="CR19" s="17"/>
+      <c r="CS19" s="17"/>
+      <c r="CT19" s="17"/>
+      <c r="CU19" s="17"/>
+      <c r="CV19" s="17"/>
+      <c r="CW19" s="17"/>
+      <c r="CX19" s="17"/>
+      <c r="CY19" s="17"/>
+      <c r="CZ19" s="17"/>
+      <c r="DA19" s="17"/>
+      <c r="DB19" s="17"/>
+      <c r="DC19" s="17"/>
+      <c r="DD19" s="17"/>
+      <c r="DE19" s="17"/>
+      <c r="DF19" s="17"/>
+      <c r="DG19" s="17"/>
+      <c r="DH19" s="17"/>
+      <c r="DI19" s="17"/>
+      <c r="DJ19" s="17"/>
+      <c r="DK19" s="17"/>
+      <c r="DL19" s="17"/>
+      <c r="DM19" s="17"/>
+      <c r="DN19" s="17"/>
+      <c r="DO19" s="17"/>
+      <c r="DP19" s="17"/>
+      <c r="DQ19" s="17"/>
+      <c r="DR19" s="17"/>
+      <c r="DS19" s="17"/>
+      <c r="DT19" s="17"/>
+      <c r="DU19" s="17"/>
+      <c r="DV19" s="17"/>
+      <c r="DW19" s="17"/>
+    </row>
+    <row r="20" spans="1:127" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="BL20" s="46"/>
+      <c r="BM20" s="46"/>
+      <c r="BN20" s="46"/>
+      <c r="BO20" s="46"/>
+      <c r="BP20" s="46"/>
+      <c r="BQ20" s="46"/>
+      <c r="BR20" s="46"/>
+      <c r="BS20" s="46"/>
+      <c r="CB20" s="60"/>
+      <c r="CC20" s="61"/>
+      <c r="CD20" s="61"/>
+      <c r="CE20" s="62"/>
+      <c r="CH20" s="53"/>
+      <c r="CI20" s="53"/>
+      <c r="CJ20" s="53"/>
+      <c r="CK20" s="53"/>
+      <c r="CL20" s="53"/>
+      <c r="CM20" s="53"/>
+      <c r="CN20" s="53"/>
+      <c r="CO20" s="53"/>
+    </row>
+    <row r="21" spans="1:127" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="Z21" s="46"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="BP21" s="46"/>
+      <c r="BQ21" s="46"/>
+      <c r="BR21" s="46"/>
+      <c r="BS21" s="46"/>
+      <c r="BT21" s="46"/>
+      <c r="CE21" s="60"/>
+      <c r="CF21" s="62"/>
+      <c r="CN21" s="53"/>
+      <c r="CO21" s="53"/>
+      <c r="CP21" s="53"/>
+    </row>
+    <row r="22" spans="1:127" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="44"/>
-      <c r="BD19" s="27"/>
-      <c r="BE19" s="29"/>
-      <c r="BH19" s="48"/>
-      <c r="BK19" s="27"/>
-      <c r="BL19" s="29"/>
-    </row>
-    <row r="20" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="17"/>
-      <c r="AP21" s="17"/>
-      <c r="AQ21" s="17"/>
-      <c r="AR21" s="17"/>
-      <c r="AS21" s="17"/>
-      <c r="AT21" s="17"/>
-      <c r="AU21" s="17"/>
-      <c r="AV21" s="17"/>
-      <c r="AW21" s="17"/>
-      <c r="AX21" s="17"/>
-      <c r="AY21" s="17"/>
-      <c r="AZ21" s="17"/>
-      <c r="BA21" s="17"/>
-      <c r="BB21" s="17"/>
-      <c r="BC21" s="17"/>
-      <c r="BD21" s="17"/>
-      <c r="BE21" s="17"/>
-      <c r="BF21" s="17"/>
-      <c r="BG21" s="17"/>
-      <c r="BH21" s="17"/>
-      <c r="BI21" s="17"/>
-      <c r="BJ21" s="17"/>
-      <c r="BK21" s="17"/>
-      <c r="BL21" s="17"/>
-      <c r="BM21" s="17"/>
-      <c r="BN21" s="17"/>
-      <c r="BO21" s="17"/>
-      <c r="BP21" s="17"/>
-      <c r="BQ21" s="17"/>
-      <c r="BR21" s="17"/>
-      <c r="BS21" s="17"/>
-      <c r="BT21" s="17"/>
-      <c r="BU21" s="17"/>
-      <c r="BV21" s="17"/>
-      <c r="BW21" s="17"/>
-      <c r="BX21" s="17"/>
-      <c r="BY21" s="17"/>
-      <c r="BZ21" s="17"/>
-      <c r="CA21" s="17"/>
-      <c r="CB21" s="17"/>
-      <c r="CC21" s="17"/>
-      <c r="CD21" s="17"/>
-      <c r="CE21" s="17"/>
-      <c r="CF21" s="17"/>
-      <c r="CG21" s="17"/>
-      <c r="CH21" s="17"/>
-      <c r="CI21" s="17"/>
-      <c r="CJ21" s="17"/>
-      <c r="CK21" s="17"/>
-      <c r="CL21" s="17"/>
-      <c r="CM21" s="17"/>
-      <c r="CN21" s="17"/>
-      <c r="CO21" s="17"/>
-      <c r="CP21" s="17"/>
-      <c r="CQ21" s="17"/>
-      <c r="CR21" s="17"/>
-      <c r="CS21" s="17"/>
-      <c r="CT21" s="17"/>
-      <c r="CU21" s="17"/>
-      <c r="CV21" s="17"/>
-      <c r="CW21" s="17"/>
-      <c r="CX21" s="17"/>
-      <c r="CY21" s="17"/>
-      <c r="CZ21" s="17"/>
-      <c r="DA21" s="17"/>
-      <c r="DB21" s="17"/>
-      <c r="DC21" s="17"/>
-      <c r="DD21" s="17"/>
-      <c r="DE21" s="17"/>
-      <c r="DF21" s="17"/>
-      <c r="DG21" s="17"/>
-      <c r="DH21" s="17"/>
-      <c r="DI21" s="17"/>
-      <c r="DJ21" s="17"/>
-      <c r="DK21" s="17"/>
-      <c r="DL21" s="17"/>
-      <c r="DM21" s="17"/>
-      <c r="DN21" s="17"/>
-      <c r="DO21" s="17"/>
-      <c r="DP21" s="17"/>
-      <c r="DQ21" s="17"/>
-      <c r="DR21" s="17"/>
-      <c r="DS21" s="17"/>
-      <c r="DT21" s="17"/>
-      <c r="DU21" s="17"/>
-      <c r="DV21" s="17"/>
-      <c r="DW21" s="17"/>
-    </row>
-    <row r="22" spans="1:127" ht="58" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="44"/>
-      <c r="BM22" s="27"/>
-      <c r="BN22" s="28"/>
-      <c r="BO22" s="28"/>
-      <c r="BP22" s="28"/>
-      <c r="BQ22" s="29"/>
-    </row>
-    <row r="23" spans="1:127" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="44"/>
-      <c r="BQ23" s="27"/>
-      <c r="BR23" s="28"/>
-      <c r="BS23" s="29"/>
-    </row>
-    <row r="24" spans="1:127" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="44"/>
-      <c r="BL24" s="27"/>
-      <c r="BM24" s="29"/>
-      <c r="BS24" s="27"/>
-      <c r="BT24" s="29"/>
-    </row>
-    <row r="25" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="BL22" s="46"/>
+      <c r="BM22" s="46"/>
+      <c r="BN22" s="46"/>
+      <c r="BO22" s="46"/>
+      <c r="BP22" s="46"/>
+      <c r="BQ22" s="46"/>
+      <c r="BR22" s="46"/>
+      <c r="BS22" s="46"/>
+      <c r="BT22" s="46"/>
+      <c r="BU22" s="46"/>
+      <c r="BV22" s="46"/>
+      <c r="CF22" s="60"/>
+      <c r="CG22" s="62"/>
+    </row>
+    <row r="23" spans="1:127" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:127" x14ac:dyDescent="0.35">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="20"/>
+      <c r="AV24" s="20"/>
+      <c r="AW24" s="20"/>
+      <c r="AX24" s="20"/>
+      <c r="AY24" s="20"/>
+      <c r="AZ24" s="20"/>
+      <c r="BA24" s="20"/>
+      <c r="BB24" s="20"/>
+      <c r="BC24" s="20"/>
+      <c r="BD24" s="20"/>
+      <c r="BE24" s="20"/>
+      <c r="BF24" s="20"/>
+      <c r="BG24" s="20"/>
+      <c r="BH24" s="20"/>
+      <c r="BI24" s="20"/>
+      <c r="BJ24" s="20"/>
+      <c r="BK24" s="20"/>
+      <c r="BL24" s="20"/>
+      <c r="BM24" s="20"/>
+      <c r="BN24" s="20"/>
+      <c r="BO24" s="20"/>
+      <c r="BP24" s="20"/>
+      <c r="BQ24" s="20"/>
+      <c r="BR24" s="20"/>
+      <c r="BS24" s="20"/>
+      <c r="BT24" s="20"/>
+      <c r="BU24" s="20"/>
+      <c r="BV24" s="20"/>
+      <c r="BW24" s="20"/>
+      <c r="BX24" s="20"/>
+      <c r="BY24" s="20"/>
+      <c r="BZ24" s="20"/>
+      <c r="CA24" s="20"/>
+      <c r="CB24" s="20"/>
+      <c r="CC24" s="20"/>
+      <c r="CD24" s="20"/>
+      <c r="CE24" s="20"/>
+      <c r="CF24" s="20"/>
+      <c r="CG24" s="20"/>
+      <c r="CH24" s="20"/>
+      <c r="CI24" s="20"/>
+      <c r="CJ24" s="20"/>
+      <c r="CK24" s="20"/>
+      <c r="CL24" s="20"/>
+      <c r="CM24" s="20"/>
+      <c r="CN24" s="20"/>
+      <c r="CO24" s="20"/>
+      <c r="CP24" s="20"/>
+      <c r="CQ24" s="20"/>
+      <c r="CR24" s="20"/>
+      <c r="CS24" s="20"/>
+      <c r="CT24" s="20"/>
+      <c r="CU24" s="20"/>
+      <c r="CV24" s="20"/>
+      <c r="CW24" s="20"/>
+      <c r="CX24" s="20"/>
+      <c r="CY24" s="20"/>
+      <c r="CZ24" s="20"/>
+      <c r="DA24" s="20"/>
+      <c r="DB24" s="20"/>
+      <c r="DC24" s="20"/>
+      <c r="DD24" s="20"/>
+      <c r="DE24" s="20"/>
+      <c r="DF24" s="20"/>
+      <c r="DG24" s="20"/>
+      <c r="DH24" s="20"/>
+      <c r="DI24" s="20"/>
+      <c r="DJ24" s="20"/>
+      <c r="DK24" s="20"/>
+      <c r="DL24" s="20"/>
+      <c r="DM24" s="20"/>
+      <c r="DN24" s="20"/>
+      <c r="DO24" s="20"/>
+      <c r="DP24" s="20"/>
+      <c r="DQ24" s="20"/>
+      <c r="DR24" s="20"/>
+      <c r="DS24" s="20"/>
+      <c r="DT24" s="20"/>
+      <c r="DU24" s="20"/>
+      <c r="DV24" s="20"/>
+      <c r="DW24" s="20"/>
+    </row>
+    <row r="25" spans="1:127" ht="58" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="46"/>
+      <c r="BT25" s="46"/>
+      <c r="BU25" s="46"/>
+      <c r="BV25" s="46"/>
+      <c r="BW25" s="46"/>
+      <c r="BX25" s="46"/>
+      <c r="CH25" s="63"/>
+      <c r="CI25" s="64"/>
+      <c r="CJ25" s="65"/>
     </row>
     <row r="26" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="20"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="20"/>
-      <c r="AT26" s="20"/>
-      <c r="AU26" s="20"/>
-      <c r="AV26" s="20"/>
-      <c r="AW26" s="20"/>
-      <c r="AX26" s="20"/>
-      <c r="AY26" s="20"/>
-      <c r="AZ26" s="20"/>
-      <c r="BA26" s="20"/>
-      <c r="BB26" s="20"/>
-      <c r="BC26" s="20"/>
-      <c r="BD26" s="20"/>
-      <c r="BE26" s="20"/>
-      <c r="BF26" s="20"/>
-      <c r="BG26" s="20"/>
-      <c r="BH26" s="20"/>
-      <c r="BI26" s="20"/>
-      <c r="BJ26" s="20"/>
-      <c r="BK26" s="20"/>
-      <c r="BL26" s="20"/>
-      <c r="BM26" s="20"/>
-      <c r="BN26" s="20"/>
-      <c r="BO26" s="20"/>
-      <c r="BP26" s="20"/>
-      <c r="BQ26" s="20"/>
-      <c r="BR26" s="20"/>
-      <c r="BS26" s="20"/>
-      <c r="BT26" s="20"/>
-      <c r="BU26" s="20"/>
-      <c r="BV26" s="20"/>
-      <c r="BW26" s="20"/>
-      <c r="BX26" s="20"/>
-      <c r="BY26" s="20"/>
-      <c r="BZ26" s="20"/>
-      <c r="CA26" s="20"/>
-      <c r="CB26" s="20"/>
-      <c r="CC26" s="20"/>
-      <c r="CD26" s="20"/>
-      <c r="CE26" s="20"/>
-      <c r="CF26" s="20"/>
-      <c r="CG26" s="20"/>
-      <c r="CH26" s="20"/>
-      <c r="CI26" s="20"/>
-      <c r="CJ26" s="20"/>
-      <c r="CK26" s="20"/>
-      <c r="CL26" s="20"/>
-      <c r="CM26" s="20"/>
-      <c r="CN26" s="20"/>
-      <c r="CO26" s="20"/>
-      <c r="CP26" s="20"/>
-      <c r="CQ26" s="20"/>
-      <c r="CR26" s="20"/>
-      <c r="CS26" s="20"/>
-      <c r="CT26" s="20"/>
-      <c r="CU26" s="20"/>
-      <c r="CV26" s="20"/>
-      <c r="CW26" s="20"/>
-      <c r="CX26" s="20"/>
-      <c r="CY26" s="20"/>
-      <c r="CZ26" s="20"/>
-      <c r="DA26" s="20"/>
-      <c r="DB26" s="20"/>
-      <c r="DC26" s="20"/>
-      <c r="DD26" s="20"/>
-      <c r="DE26" s="20"/>
-      <c r="DF26" s="20"/>
-      <c r="DG26" s="20"/>
-      <c r="DH26" s="20"/>
-      <c r="DI26" s="20"/>
-      <c r="DJ26" s="20"/>
-      <c r="DK26" s="20"/>
-      <c r="DL26" s="20"/>
-      <c r="DM26" s="20"/>
-      <c r="DN26" s="20"/>
-      <c r="DO26" s="20"/>
-      <c r="DP26" s="20"/>
-      <c r="DQ26" s="20"/>
-      <c r="DR26" s="20"/>
-      <c r="DS26" s="20"/>
-      <c r="DT26" s="20"/>
-      <c r="DU26" s="20"/>
-      <c r="DV26" s="20"/>
-      <c r="DW26" s="20"/>
-    </row>
-    <row r="27" spans="1:127" ht="58" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>4</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="43"/>
-      <c r="AG27" s="43"/>
-      <c r="AH27" s="43"/>
-      <c r="AI27" s="44"/>
-      <c r="BT27" s="27"/>
-      <c r="BU27" s="28"/>
-      <c r="BV27" s="28"/>
-      <c r="BW27" s="29"/>
-    </row>
-    <row r="28" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:127" x14ac:dyDescent="0.35">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="23"/>
+      <c r="AM27" s="23"/>
+      <c r="AN27" s="23"/>
+      <c r="AO27" s="23"/>
+      <c r="AP27" s="23"/>
+      <c r="AQ27" s="23"/>
+      <c r="AR27" s="23"/>
+      <c r="AS27" s="23"/>
+      <c r="AT27" s="23"/>
+      <c r="AU27" s="23"/>
+      <c r="AV27" s="23"/>
+      <c r="AW27" s="23"/>
+      <c r="AX27" s="23"/>
+      <c r="AY27" s="23"/>
+      <c r="AZ27" s="23"/>
+      <c r="BA27" s="23"/>
+      <c r="BB27" s="23"/>
+      <c r="BC27" s="23"/>
+      <c r="BD27" s="23"/>
+      <c r="BE27" s="23"/>
+      <c r="BF27" s="23"/>
+      <c r="BG27" s="23"/>
+      <c r="BH27" s="23"/>
+      <c r="BI27" s="23"/>
+      <c r="BJ27" s="23"/>
+      <c r="BK27" s="23"/>
+      <c r="BL27" s="23"/>
+      <c r="BM27" s="23"/>
+      <c r="BN27" s="23"/>
+      <c r="BO27" s="23"/>
+      <c r="BP27" s="23"/>
+      <c r="BQ27" s="23"/>
+      <c r="BR27" s="23"/>
+      <c r="BS27" s="23"/>
+      <c r="BT27" s="23"/>
+      <c r="BU27" s="23"/>
+      <c r="BV27" s="23"/>
+      <c r="BW27" s="23"/>
+      <c r="BX27" s="23"/>
+      <c r="BY27" s="23"/>
+      <c r="BZ27" s="23"/>
+      <c r="CA27" s="23"/>
+      <c r="CB27" s="23"/>
+      <c r="CC27" s="23"/>
+      <c r="CD27" s="23"/>
+      <c r="CE27" s="23"/>
+      <c r="CF27" s="23"/>
+      <c r="CG27" s="23"/>
+      <c r="CH27" s="23"/>
+      <c r="CI27" s="23"/>
+      <c r="CJ27" s="23"/>
+      <c r="CK27" s="23"/>
+      <c r="CL27" s="23"/>
+      <c r="CM27" s="23"/>
+      <c r="CN27" s="23"/>
+      <c r="CO27" s="23"/>
+      <c r="CP27" s="23"/>
+      <c r="CQ27" s="23"/>
+      <c r="CR27" s="23"/>
+      <c r="CS27" s="23"/>
+      <c r="CT27" s="23"/>
+      <c r="CU27" s="23"/>
+      <c r="CV27" s="23"/>
+      <c r="CW27" s="23"/>
+      <c r="CX27" s="23"/>
+      <c r="CY27" s="23"/>
+      <c r="CZ27" s="23"/>
+      <c r="DA27" s="23"/>
+      <c r="DB27" s="23"/>
+      <c r="DC27" s="23"/>
+      <c r="DD27" s="23"/>
+      <c r="DE27" s="23"/>
+      <c r="DF27" s="23"/>
+      <c r="DG27" s="23"/>
+      <c r="DH27" s="23"/>
+      <c r="DI27" s="23"/>
+      <c r="DJ27" s="23"/>
+      <c r="DK27" s="23"/>
+      <c r="DL27" s="23"/>
+      <c r="DM27" s="23"/>
+      <c r="DN27" s="23"/>
+      <c r="DO27" s="23"/>
+      <c r="DP27" s="23"/>
+      <c r="DQ27" s="23"/>
+      <c r="DR27" s="23"/>
+      <c r="DS27" s="23"/>
+      <c r="DT27" s="23"/>
+      <c r="DU27" s="23"/>
+      <c r="DV27" s="23"/>
+      <c r="DW27" s="23"/>
+    </row>
+    <row r="28" spans="1:127" ht="87" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="AI28" s="46"/>
+      <c r="AJ28" s="46"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="46"/>
+      <c r="AN28" s="46"/>
+      <c r="AO28" s="46"/>
+      <c r="BV28" s="46"/>
+      <c r="BW28" s="46"/>
+      <c r="BX28" s="46"/>
+      <c r="BY28" s="46"/>
+      <c r="BZ28" s="46"/>
+      <c r="CA28" s="46"/>
+      <c r="CK28" s="66"/>
+      <c r="CL28" s="67"/>
     </row>
     <row r="29" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="23"/>
-      <c r="AG29" s="23"/>
-      <c r="AH29" s="23"/>
-      <c r="AI29" s="23"/>
-      <c r="AJ29" s="23"/>
-      <c r="AK29" s="23"/>
-      <c r="AL29" s="23"/>
-      <c r="AM29" s="23"/>
-      <c r="AN29" s="23"/>
-      <c r="AO29" s="23"/>
-      <c r="AP29" s="23"/>
-      <c r="AQ29" s="23"/>
-      <c r="AR29" s="23"/>
-      <c r="AS29" s="23"/>
-      <c r="AT29" s="23"/>
-      <c r="AU29" s="23"/>
-      <c r="AV29" s="23"/>
-      <c r="AW29" s="23"/>
-      <c r="AX29" s="23"/>
-      <c r="AY29" s="23"/>
-      <c r="AZ29" s="23"/>
-      <c r="BA29" s="23"/>
-      <c r="BB29" s="23"/>
-      <c r="BC29" s="23"/>
-      <c r="BD29" s="23"/>
-      <c r="BE29" s="23"/>
-      <c r="BF29" s="23"/>
-      <c r="BG29" s="23"/>
-      <c r="BH29" s="23"/>
-      <c r="BI29" s="23"/>
-      <c r="BJ29" s="23"/>
-      <c r="BK29" s="23"/>
-      <c r="BL29" s="23"/>
-      <c r="BM29" s="23"/>
-      <c r="BN29" s="23"/>
-      <c r="BO29" s="23"/>
-      <c r="BP29" s="23"/>
-      <c r="BQ29" s="23"/>
-      <c r="BR29" s="23"/>
-      <c r="BS29" s="23"/>
-      <c r="BT29" s="23"/>
-      <c r="BU29" s="23"/>
-      <c r="BV29" s="23"/>
-      <c r="BW29" s="23"/>
-      <c r="BX29" s="23"/>
-      <c r="BY29" s="23"/>
-      <c r="BZ29" s="23"/>
-      <c r="CA29" s="23"/>
-      <c r="CB29" s="23"/>
-      <c r="CC29" s="23"/>
-      <c r="CD29" s="23"/>
-      <c r="CE29" s="23"/>
-      <c r="CF29" s="23"/>
-      <c r="CG29" s="23"/>
-      <c r="CH29" s="23"/>
-      <c r="CI29" s="23"/>
-      <c r="CJ29" s="23"/>
-      <c r="CK29" s="23"/>
-      <c r="CL29" s="23"/>
-      <c r="CM29" s="23"/>
-      <c r="CN29" s="23"/>
-      <c r="CO29" s="23"/>
-      <c r="CP29" s="23"/>
-      <c r="CQ29" s="23"/>
-      <c r="CR29" s="23"/>
-      <c r="CS29" s="23"/>
-      <c r="CT29" s="23"/>
-      <c r="CU29" s="23"/>
-      <c r="CV29" s="23"/>
-      <c r="CW29" s="23"/>
-      <c r="CX29" s="23"/>
-      <c r="CY29" s="23"/>
-      <c r="CZ29" s="23"/>
-      <c r="DA29" s="23"/>
-      <c r="DB29" s="23"/>
-      <c r="DC29" s="23"/>
-      <c r="DD29" s="23"/>
-      <c r="DE29" s="23"/>
-      <c r="DF29" s="23"/>
-      <c r="DG29" s="23"/>
-      <c r="DH29" s="23"/>
-      <c r="DI29" s="23"/>
-      <c r="DJ29" s="23"/>
-      <c r="DK29" s="23"/>
-      <c r="DL29" s="23"/>
-      <c r="DM29" s="23"/>
-      <c r="DN29" s="23"/>
-      <c r="DO29" s="23"/>
-      <c r="DP29" s="23"/>
-      <c r="DQ29" s="23"/>
-      <c r="DR29" s="23"/>
-      <c r="DS29" s="23"/>
-      <c r="DT29" s="23"/>
-      <c r="DU29" s="23"/>
-      <c r="DV29" s="23"/>
-      <c r="DW29" s="23"/>
-    </row>
-    <row r="30" spans="1:127" ht="87" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>5</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="43"/>
-      <c r="AL30" s="43"/>
-      <c r="AM30" s="43"/>
-      <c r="AN30" s="44"/>
-      <c r="BW30" s="27"/>
-      <c r="BX30" s="28"/>
-      <c r="BY30" s="28"/>
-      <c r="BZ30" s="29"/>
-    </row>
-    <row r="31" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
-      <c r="B32" s="26" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:127" x14ac:dyDescent="0.35">
+      <c r="A30" s="24"/>
+      <c r="B30" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="25"/>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="25"/>
-      <c r="AD32" s="25"/>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="25"/>
-      <c r="AG32" s="25"/>
-      <c r="AH32" s="25"/>
-      <c r="AI32" s="25"/>
-      <c r="AJ32" s="25"/>
-      <c r="AK32" s="25"/>
-      <c r="AL32" s="25"/>
-      <c r="AM32" s="25"/>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="25"/>
-      <c r="AP32" s="25"/>
-      <c r="AQ32" s="25"/>
-      <c r="AR32" s="25"/>
-      <c r="AS32" s="25"/>
-      <c r="AT32" s="25"/>
-      <c r="AU32" s="25"/>
-      <c r="AV32" s="25"/>
-      <c r="AW32" s="25"/>
-      <c r="AX32" s="25"/>
-      <c r="AY32" s="25"/>
-      <c r="AZ32" s="25"/>
-      <c r="BA32" s="25"/>
-      <c r="BB32" s="25"/>
-      <c r="BC32" s="25"/>
-      <c r="BD32" s="25"/>
-      <c r="BE32" s="25"/>
-      <c r="BF32" s="25"/>
-      <c r="BG32" s="25"/>
-      <c r="BH32" s="25"/>
-      <c r="BI32" s="25"/>
-      <c r="BJ32" s="25"/>
-      <c r="BK32" s="25"/>
-      <c r="BL32" s="25"/>
-      <c r="BM32" s="25"/>
-      <c r="BN32" s="25"/>
-      <c r="BO32" s="25"/>
-      <c r="BP32" s="25"/>
-      <c r="BQ32" s="25"/>
-      <c r="BR32" s="25"/>
-      <c r="BS32" s="25"/>
-      <c r="BT32" s="25"/>
-      <c r="BU32" s="25"/>
-      <c r="BV32" s="25"/>
-      <c r="BW32" s="25"/>
-      <c r="BX32" s="25"/>
-      <c r="BY32" s="25"/>
-      <c r="BZ32" s="25"/>
-      <c r="CA32" s="25"/>
-      <c r="CB32" s="25"/>
-      <c r="CC32" s="25"/>
-      <c r="CD32" s="25"/>
-      <c r="CE32" s="25"/>
-      <c r="CF32" s="25"/>
-      <c r="CG32" s="25"/>
-      <c r="CH32" s="25"/>
-      <c r="CI32" s="25"/>
-      <c r="CJ32" s="25"/>
-      <c r="CK32" s="25"/>
-      <c r="CL32" s="25"/>
-      <c r="CM32" s="25"/>
-      <c r="CN32" s="25"/>
-      <c r="CO32" s="25"/>
-      <c r="CP32" s="25"/>
-      <c r="CQ32" s="25"/>
-      <c r="CR32" s="25"/>
-      <c r="CS32" s="25"/>
-      <c r="CT32" s="25"/>
-      <c r="CU32" s="25"/>
-      <c r="CV32" s="25"/>
-      <c r="CW32" s="25"/>
-      <c r="CX32" s="25"/>
-      <c r="CY32" s="25"/>
-      <c r="CZ32" s="25"/>
-      <c r="DA32" s="25"/>
-      <c r="DB32" s="25"/>
-      <c r="DC32" s="25"/>
-      <c r="DD32" s="25"/>
-      <c r="DE32" s="25"/>
-      <c r="DF32" s="25"/>
-      <c r="DG32" s="25"/>
-      <c r="DH32" s="25"/>
-      <c r="DI32" s="25"/>
-      <c r="DJ32" s="25"/>
-      <c r="DK32" s="25"/>
-      <c r="DL32" s="25"/>
-      <c r="DM32" s="25"/>
-      <c r="DN32" s="25"/>
-      <c r="DO32" s="25"/>
-      <c r="DP32" s="25"/>
-      <c r="DQ32" s="25"/>
-      <c r="DR32" s="25"/>
-      <c r="DS32" s="25"/>
-      <c r="DT32" s="25"/>
-      <c r="DU32" s="25"/>
-      <c r="DV32" s="25"/>
-      <c r="DW32" s="25"/>
-    </row>
-    <row r="33" spans="1:85" ht="58" x14ac:dyDescent="0.35">
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="25"/>
+      <c r="AP30" s="25"/>
+      <c r="AQ30" s="25"/>
+      <c r="AR30" s="25"/>
+      <c r="AS30" s="25"/>
+      <c r="AT30" s="25"/>
+      <c r="AU30" s="25"/>
+      <c r="AV30" s="25"/>
+      <c r="AW30" s="25"/>
+      <c r="AX30" s="25"/>
+      <c r="AY30" s="25"/>
+      <c r="AZ30" s="25"/>
+      <c r="BA30" s="25"/>
+      <c r="BB30" s="25"/>
+      <c r="BC30" s="25"/>
+      <c r="BD30" s="25"/>
+      <c r="BE30" s="25"/>
+      <c r="BF30" s="25"/>
+      <c r="BG30" s="25"/>
+      <c r="BH30" s="25"/>
+      <c r="BI30" s="25"/>
+      <c r="BJ30" s="25"/>
+      <c r="BK30" s="25"/>
+      <c r="BL30" s="25"/>
+      <c r="BM30" s="25"/>
+      <c r="BN30" s="25"/>
+      <c r="BO30" s="25"/>
+      <c r="BP30" s="25"/>
+      <c r="BQ30" s="25"/>
+      <c r="BR30" s="25"/>
+      <c r="BS30" s="25"/>
+      <c r="BT30" s="25"/>
+      <c r="BU30" s="25"/>
+      <c r="BV30" s="25"/>
+      <c r="BW30" s="25"/>
+      <c r="BX30" s="25"/>
+      <c r="BY30" s="25"/>
+      <c r="BZ30" s="25"/>
+      <c r="CA30" s="25"/>
+      <c r="CB30" s="25"/>
+      <c r="CC30" s="25"/>
+      <c r="CD30" s="25"/>
+      <c r="CE30" s="25"/>
+      <c r="CF30" s="25"/>
+      <c r="CG30" s="25"/>
+      <c r="CH30" s="25"/>
+      <c r="CI30" s="25"/>
+      <c r="CJ30" s="25"/>
+      <c r="CK30" s="25"/>
+      <c r="CL30" s="25"/>
+      <c r="CM30" s="25"/>
+      <c r="CN30" s="25"/>
+      <c r="CO30" s="25"/>
+      <c r="CP30" s="25"/>
+      <c r="CQ30" s="25"/>
+      <c r="CR30" s="25"/>
+      <c r="CS30" s="25"/>
+      <c r="CT30" s="25"/>
+      <c r="CU30" s="25"/>
+      <c r="CV30" s="25"/>
+      <c r="CW30" s="25"/>
+      <c r="CX30" s="25"/>
+      <c r="CY30" s="25"/>
+      <c r="CZ30" s="25"/>
+      <c r="DA30" s="25"/>
+      <c r="DB30" s="25"/>
+      <c r="DC30" s="25"/>
+      <c r="DD30" s="25"/>
+      <c r="DE30" s="25"/>
+      <c r="DF30" s="25"/>
+      <c r="DG30" s="25"/>
+      <c r="DH30" s="25"/>
+      <c r="DI30" s="25"/>
+      <c r="DJ30" s="25"/>
+      <c r="DK30" s="25"/>
+      <c r="DL30" s="25"/>
+      <c r="DM30" s="25"/>
+      <c r="DN30" s="25"/>
+      <c r="DO30" s="25"/>
+      <c r="DP30" s="25"/>
+      <c r="DQ30" s="25"/>
+      <c r="DR30" s="25"/>
+      <c r="DS30" s="25"/>
+      <c r="DT30" s="25"/>
+      <c r="DU30" s="25"/>
+      <c r="DV30" s="25"/>
+      <c r="DW30" s="25"/>
+    </row>
+    <row r="31" spans="1:127" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="AN31" s="46"/>
+      <c r="AO31" s="46"/>
+      <c r="AP31" s="46"/>
+      <c r="AQ31" s="46"/>
+      <c r="BY31" s="46"/>
+      <c r="BZ31" s="46"/>
+      <c r="CA31" s="46"/>
+      <c r="CB31" s="46"/>
+    </row>
+    <row r="32" spans="1:127" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="AO32" s="46"/>
+      <c r="AP32" s="46"/>
+      <c r="AQ32" s="46"/>
+      <c r="AR32" s="46"/>
+      <c r="AS32" s="46"/>
+      <c r="BZ32" s="46"/>
+      <c r="CA32" s="46"/>
+      <c r="CB32" s="46"/>
+      <c r="CC32" s="46"/>
+      <c r="CD32" s="46"/>
+      <c r="CE32" s="46"/>
+      <c r="CF32" s="46"/>
+      <c r="CG32" s="46"/>
+    </row>
+    <row r="33" spans="1:127" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="30"/>
+        <v>44</v>
+      </c>
+      <c r="C33" s="27"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="AO33" s="42"/>
-      <c r="AP33" s="44"/>
-      <c r="BZ33" s="27"/>
-      <c r="CA33" s="29"/>
-    </row>
-    <row r="34" spans="1:85" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="AP34" s="42"/>
-      <c r="AQ34" s="43"/>
-      <c r="AR34" s="44"/>
-      <c r="CA34" s="27"/>
-      <c r="CB34" s="28"/>
-      <c r="CC34" s="28"/>
-      <c r="CD34" s="28"/>
-      <c r="CE34" s="29"/>
-    </row>
-    <row r="35" spans="1:85" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="AR35" s="42"/>
-      <c r="AS35" s="44"/>
-      <c r="CE35" s="27"/>
-      <c r="CF35" s="28"/>
-      <c r="CG35" s="29"/>
-    </row>
-    <row r="36" spans="1:85" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:85" x14ac:dyDescent="0.35">
+      <c r="AQ33" s="46"/>
+      <c r="AR33" s="46"/>
+      <c r="AS33" s="46"/>
+      <c r="AT33" s="46"/>
+      <c r="CD33" s="46"/>
+      <c r="CE33" s="46"/>
+      <c r="CF33" s="46"/>
+      <c r="CG33" s="46"/>
+      <c r="CH33" s="46"/>
+    </row>
+    <row r="34" spans="1:127" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="AQ34" s="46"/>
+      <c r="AR34" s="46"/>
+      <c r="AS34" s="46"/>
+      <c r="AT34" s="46"/>
+    </row>
+    <row r="35" spans="1:127" x14ac:dyDescent="0.35">
+      <c r="A35" s="48"/>
+      <c r="B35" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="50"/>
+      <c r="AI35" s="50"/>
+      <c r="AJ35" s="50"/>
+      <c r="AK35" s="50"/>
+      <c r="AL35" s="50"/>
+      <c r="AM35" s="50"/>
+      <c r="AN35" s="50"/>
+      <c r="AO35" s="50"/>
+      <c r="AP35" s="50"/>
+      <c r="AQ35" s="51"/>
+      <c r="AR35" s="51"/>
+      <c r="AS35" s="51"/>
+      <c r="AT35" s="51"/>
+      <c r="AU35" s="50"/>
+      <c r="AV35" s="50"/>
+      <c r="AW35" s="50"/>
+      <c r="AX35" s="50"/>
+      <c r="AY35" s="50"/>
+      <c r="AZ35" s="50"/>
+      <c r="BA35" s="50"/>
+      <c r="BB35" s="50"/>
+      <c r="BC35" s="50"/>
+      <c r="BD35" s="50"/>
+      <c r="BE35" s="50"/>
+      <c r="BF35" s="50"/>
+      <c r="BG35" s="50"/>
+      <c r="BH35" s="50"/>
+      <c r="BI35" s="50"/>
+      <c r="BJ35" s="50"/>
+      <c r="BK35" s="50"/>
+      <c r="BL35" s="50"/>
+      <c r="BM35" s="50"/>
+      <c r="BN35" s="50"/>
+      <c r="BO35" s="50"/>
+      <c r="BP35" s="50"/>
+      <c r="BQ35" s="50"/>
+      <c r="BR35" s="50"/>
+      <c r="BS35" s="50"/>
+      <c r="BT35" s="50"/>
+      <c r="BU35" s="50"/>
+      <c r="BV35" s="50"/>
+      <c r="BW35" s="50"/>
+      <c r="BX35" s="50"/>
+      <c r="BY35" s="50"/>
+      <c r="BZ35" s="50"/>
+      <c r="CA35" s="50"/>
+      <c r="CB35" s="50"/>
+      <c r="CC35" s="50"/>
+      <c r="CD35" s="50"/>
+      <c r="CE35" s="50"/>
+      <c r="CF35" s="50"/>
+      <c r="CG35" s="50"/>
+      <c r="CH35" s="50"/>
+      <c r="CI35" s="50"/>
+      <c r="CJ35" s="50"/>
+      <c r="CK35" s="50"/>
+      <c r="CL35" s="50"/>
+      <c r="CM35" s="50"/>
+      <c r="CN35" s="50"/>
+      <c r="CO35" s="50"/>
+      <c r="CP35" s="50"/>
+      <c r="CQ35" s="50"/>
+      <c r="CR35" s="50"/>
+      <c r="CS35" s="50"/>
+      <c r="CT35" s="50"/>
+      <c r="CU35" s="50"/>
+      <c r="CV35" s="50"/>
+      <c r="CW35" s="50"/>
+      <c r="CX35" s="50"/>
+      <c r="CY35" s="50"/>
+      <c r="CZ35" s="50"/>
+      <c r="DA35" s="50"/>
+      <c r="DB35" s="50"/>
+      <c r="DC35" s="50"/>
+      <c r="DD35" s="50"/>
+      <c r="DE35" s="50"/>
+      <c r="DF35" s="50"/>
+      <c r="DG35" s="50"/>
+      <c r="DH35" s="50"/>
+      <c r="DI35" s="50"/>
+      <c r="DJ35" s="50"/>
+      <c r="DK35" s="50"/>
+      <c r="DL35" s="50"/>
+      <c r="DM35" s="50"/>
+      <c r="DN35" s="50"/>
+      <c r="DO35" s="50"/>
+      <c r="DP35" s="50"/>
+      <c r="DQ35" s="50"/>
+      <c r="DR35" s="50"/>
+      <c r="DS35" s="50"/>
+      <c r="DT35" s="50"/>
+      <c r="DU35" s="50"/>
+      <c r="DV35" s="50"/>
+      <c r="DW35" s="50"/>
+    </row>
+    <row r="36" spans="1:127" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="32"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="34"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="33"/>
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="33"/>
+      <c r="AK36" s="33"/>
+      <c r="AL36" s="33"/>
+      <c r="AM36" s="34"/>
+      <c r="AO36" s="32"/>
+      <c r="AP36" s="33"/>
+      <c r="AQ36" s="33"/>
+      <c r="AR36" s="33"/>
+      <c r="AS36" s="33"/>
+      <c r="AT36" s="33"/>
+      <c r="AU36" s="33"/>
+      <c r="AV36" s="33"/>
+      <c r="AW36" s="34"/>
+    </row>
+    <row r="37" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="4"/>
@@ -3239,7 +3455,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
+      <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -3265,13 +3481,6 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38806F68-CD70-49DC-8C8A-72E85473B193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE61ED3-FB84-49E1-AF20-E92D72BC64F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="57">
   <si>
     <t>Individual Project</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STILL TO-DO ATTACK CLASS </t>
+  </si>
+  <si>
+    <t>Implement GUNS FOR THE PLAYER AND GUARDS</t>
   </si>
 </sst>
 </file>
@@ -271,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +341,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -507,10 +519,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -518,9 +526,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -535,6 +541,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,7 +861,7 @@
   <dimension ref="A1:DY56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CB10" sqref="CB10"/>
+      <selection activeCell="CG15" sqref="CG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -892,11 +901,9 @@
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="53"/>
       <c r="AK2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AW2" s="53"/>
       <c r="BO2" s="7" t="s">
         <v>48</v>
       </c>
@@ -1753,16 +1760,16 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
@@ -1775,82 +1782,40 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" s="40"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="47"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
       <c r="AY6" s="29"/>
       <c r="AZ6" s="30"/>
-      <c r="BA6" s="47"/>
-      <c r="BB6" s="47"/>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="47"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
       <c r="BE6" s="29"/>
       <c r="BF6" s="30"/>
-      <c r="BG6" s="47"/>
-      <c r="BH6" s="47"/>
-      <c r="BI6" s="47"/>
-      <c r="BJ6" s="47"/>
-      <c r="BK6" s="47"/>
-      <c r="BL6" s="47"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
       <c r="BM6" s="29"/>
       <c r="BN6" s="30"/>
-      <c r="BO6" s="46"/>
-      <c r="BP6" s="46"/>
-      <c r="BQ6" s="46"/>
-      <c r="BR6" s="54"/>
-      <c r="BS6" s="55"/>
-      <c r="BT6" s="56"/>
-      <c r="BU6" s="46"/>
-      <c r="BV6" s="46"/>
-      <c r="BW6" s="46"/>
-      <c r="BX6" s="46"/>
-      <c r="BY6" s="46"/>
-      <c r="BZ6" s="46"/>
-      <c r="CA6" s="46"/>
-      <c r="CB6" s="46"/>
-      <c r="CC6" s="46"/>
-      <c r="CD6" s="46"/>
-      <c r="CE6" s="46"/>
-      <c r="CF6" s="46"/>
-      <c r="CG6" s="46"/>
-      <c r="CH6" s="46"/>
-      <c r="CI6" s="46"/>
-      <c r="CJ6" s="46"/>
-      <c r="CK6" s="46"/>
-      <c r="CL6" s="46"/>
-      <c r="CM6" s="46"/>
-      <c r="CN6" s="46"/>
-      <c r="CO6" s="46"/>
-      <c r="CP6" s="46"/>
-      <c r="CQ6" s="46"/>
-      <c r="CR6" s="46"/>
-      <c r="CS6" s="46"/>
-      <c r="CT6" s="46"/>
-      <c r="CU6" s="46"/>
-      <c r="CV6" s="46"/>
-      <c r="CW6" s="46"/>
-      <c r="CX6" s="46"/>
-      <c r="CY6" s="46"/>
-      <c r="CZ6" s="46"/>
-      <c r="DA6" s="46"/>
-      <c r="DB6" s="46"/>
-      <c r="DC6" s="46"/>
-      <c r="DD6" s="46"/>
-      <c r="DE6" s="46"/>
-      <c r="DF6" s="46"/>
-      <c r="DG6" s="46"/>
-      <c r="DH6" s="46"/>
+      <c r="BR6" s="50"/>
+      <c r="BS6" s="51"/>
+      <c r="BT6" s="52"/>
+      <c r="BU6" s="45"/>
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.35">
       <c r="C7" s="6"/>
@@ -2061,18 +2026,6 @@
       <c r="E9" s="43">
         <v>45051</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="AZ9" s="46"/>
-      <c r="BA9" s="46"/>
-      <c r="BB9" s="46"/>
-      <c r="BC9" s="46"/>
       <c r="BF9" s="35"/>
       <c r="BJ9" s="44"/>
       <c r="BK9" s="9"/>
@@ -2098,11 +2051,6 @@
       <c r="E10" s="43">
         <v>45037</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
       <c r="AN10" s="35"/>
       <c r="AX10" s="44"/>
       <c r="AY10" s="9"/>
@@ -2112,6 +2060,9 @@
       <c r="BC10" s="9"/>
       <c r="BD10" s="9"/>
       <c r="BE10" s="10"/>
+      <c r="BQ10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:129" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -2127,13 +2078,12 @@
       <c r="E11" s="43">
         <v>45008</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
       <c r="Z11" s="36"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="10"/>
+      <c r="BQ11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:129" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -2149,21 +2099,14 @@
       <c r="E12" s="43">
         <v>45051</v>
       </c>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
       <c r="Z12" s="35"/>
       <c r="AN12" s="35"/>
-      <c r="AZ12" s="46"/>
-      <c r="BC12" s="46"/>
-      <c r="BD12" s="46"/>
       <c r="BE12" s="44"/>
       <c r="BF12" s="10"/>
       <c r="BR12" s="44"/>
-      <c r="BS12" s="10"/>
+      <c r="BS12" s="9"/>
+      <c r="BT12" s="9"/>
+      <c r="BU12" s="10"/>
     </row>
     <row r="13" spans="1:129" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
@@ -2310,26 +2253,12 @@
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="46"/>
-      <c r="BE15" s="46"/>
-      <c r="BF15" s="46"/>
-      <c r="BG15" s="46"/>
-      <c r="BH15" s="46"/>
-      <c r="BI15" s="46"/>
-      <c r="BU15" s="57"/>
-      <c r="BV15" s="58"/>
-      <c r="BW15" s="59"/>
-      <c r="BX15" s="53"/>
-      <c r="BY15" s="53"/>
-      <c r="BZ15" s="53"/>
+      <c r="BU15" s="53"/>
+      <c r="BV15" s="54"/>
+      <c r="BW15" s="55"/>
     </row>
     <row r="16" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -2341,29 +2270,10 @@
       <c r="C16" s="27"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-      <c r="BH16" s="46"/>
-      <c r="BI16" s="46"/>
-      <c r="BJ16" s="46"/>
-      <c r="BK16" s="46"/>
-      <c r="BL16" s="46"/>
-      <c r="BM16" s="46"/>
-      <c r="BN16" s="46"/>
-      <c r="BW16" s="57"/>
-      <c r="BX16" s="58"/>
-      <c r="BY16" s="58"/>
-      <c r="BZ16" s="59"/>
-      <c r="CA16" s="53"/>
-      <c r="CB16" s="53"/>
-      <c r="CC16" s="53"/>
-      <c r="CD16" s="53"/>
-      <c r="CE16" s="53"/>
-      <c r="CF16" s="53"/>
-      <c r="CG16" s="53"/>
+      <c r="BW16" s="53"/>
+      <c r="BX16" s="54"/>
+      <c r="BY16" s="54"/>
+      <c r="BZ16" s="55"/>
     </row>
     <row r="17" spans="1:127" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -2375,25 +2285,8 @@
       <c r="C17" s="27"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="BC17" s="46"/>
-      <c r="BD17" s="46"/>
-      <c r="BE17" s="46"/>
-      <c r="BF17" s="46"/>
-      <c r="BG17" s="46"/>
-      <c r="BH17" s="46"/>
-      <c r="BI17" s="46"/>
-      <c r="BJ17" s="46"/>
-      <c r="BK17" s="46"/>
-      <c r="BL17" s="46"/>
-      <c r="BM17" s="46"/>
-      <c r="BN17" s="46"/>
-      <c r="BO17" s="46"/>
-      <c r="BZ17" s="57"/>
-      <c r="CA17" s="59"/>
+      <c r="BZ17" s="53"/>
+      <c r="CA17" s="55"/>
     </row>
     <row r="18" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -2543,36 +2436,10 @@
       <c r="C20" s="27"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="BL20" s="46"/>
-      <c r="BM20" s="46"/>
-      <c r="BN20" s="46"/>
-      <c r="BO20" s="46"/>
-      <c r="BP20" s="46"/>
-      <c r="BQ20" s="46"/>
-      <c r="BR20" s="46"/>
-      <c r="BS20" s="46"/>
-      <c r="CB20" s="60"/>
-      <c r="CC20" s="61"/>
-      <c r="CD20" s="61"/>
-      <c r="CE20" s="62"/>
-      <c r="CH20" s="53"/>
-      <c r="CI20" s="53"/>
-      <c r="CJ20" s="53"/>
-      <c r="CK20" s="53"/>
-      <c r="CL20" s="53"/>
-      <c r="CM20" s="53"/>
-      <c r="CN20" s="53"/>
-      <c r="CO20" s="53"/>
+      <c r="CB20" s="56"/>
+      <c r="CC20" s="57"/>
+      <c r="CD20" s="57"/>
+      <c r="CE20" s="58"/>
     </row>
     <row r="21" spans="1:127" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
@@ -2584,21 +2451,8 @@
       <c r="C21" s="27"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="BP21" s="46"/>
-      <c r="BQ21" s="46"/>
-      <c r="BR21" s="46"/>
-      <c r="BS21" s="46"/>
-      <c r="BT21" s="46"/>
-      <c r="CE21" s="60"/>
-      <c r="CF21" s="62"/>
-      <c r="CN21" s="53"/>
-      <c r="CO21" s="53"/>
-      <c r="CP21" s="53"/>
+      <c r="CE21" s="56"/>
+      <c r="CF21" s="58"/>
     </row>
     <row r="22" spans="1:127" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
@@ -2610,23 +2464,8 @@
       <c r="C22" s="27"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="BL22" s="46"/>
-      <c r="BM22" s="46"/>
-      <c r="BN22" s="46"/>
-      <c r="BO22" s="46"/>
-      <c r="BP22" s="46"/>
-      <c r="BQ22" s="46"/>
-      <c r="BR22" s="46"/>
-      <c r="BS22" s="46"/>
-      <c r="BT22" s="46"/>
-      <c r="BU22" s="46"/>
-      <c r="BV22" s="46"/>
-      <c r="CF22" s="60"/>
-      <c r="CG22" s="62"/>
+      <c r="CF22" s="56"/>
+      <c r="CG22" s="58"/>
     </row>
     <row r="23" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
@@ -2776,21 +2615,9 @@
       <c r="C25" s="27"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="AD25" s="46"/>
-      <c r="AE25" s="46"/>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="46"/>
-      <c r="AH25" s="46"/>
-      <c r="AI25" s="46"/>
-      <c r="AJ25" s="46"/>
-      <c r="BT25" s="46"/>
-      <c r="BU25" s="46"/>
-      <c r="BV25" s="46"/>
-      <c r="BW25" s="46"/>
-      <c r="BX25" s="46"/>
-      <c r="CH25" s="63"/>
-      <c r="CI25" s="64"/>
-      <c r="CJ25" s="65"/>
+      <c r="CH25" s="59"/>
+      <c r="CI25" s="60"/>
+      <c r="CJ25" s="61"/>
     </row>
     <row r="26" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -2940,21 +2767,8 @@
       <c r="C28" s="27"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="AI28" s="46"/>
-      <c r="AJ28" s="46"/>
-      <c r="AK28" s="46"/>
-      <c r="AL28" s="46"/>
-      <c r="AM28" s="46"/>
-      <c r="AN28" s="46"/>
-      <c r="AO28" s="46"/>
-      <c r="BV28" s="46"/>
-      <c r="BW28" s="46"/>
-      <c r="BX28" s="46"/>
-      <c r="BY28" s="46"/>
-      <c r="BZ28" s="46"/>
-      <c r="CA28" s="46"/>
-      <c r="CK28" s="66"/>
-      <c r="CL28" s="67"/>
+      <c r="CK28" s="62"/>
+      <c r="CL28" s="63"/>
     </row>
     <row r="29" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
@@ -3104,14 +2918,6 @@
       <c r="C31" s="27"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="AN31" s="46"/>
-      <c r="AO31" s="46"/>
-      <c r="AP31" s="46"/>
-      <c r="AQ31" s="46"/>
-      <c r="BY31" s="46"/>
-      <c r="BZ31" s="46"/>
-      <c r="CA31" s="46"/>
-      <c r="CB31" s="46"/>
     </row>
     <row r="32" spans="1:127" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
@@ -3123,19 +2929,6 @@
       <c r="C32" s="27"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="AO32" s="46"/>
-      <c r="AP32" s="46"/>
-      <c r="AQ32" s="46"/>
-      <c r="AR32" s="46"/>
-      <c r="AS32" s="46"/>
-      <c r="BZ32" s="46"/>
-      <c r="CA32" s="46"/>
-      <c r="CB32" s="46"/>
-      <c r="CC32" s="46"/>
-      <c r="CD32" s="46"/>
-      <c r="CE32" s="46"/>
-      <c r="CF32" s="46"/>
-      <c r="CG32" s="46"/>
     </row>
     <row r="33" spans="1:127" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
@@ -3147,15 +2940,6 @@
       <c r="C33" s="27"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="AQ33" s="46"/>
-      <c r="AR33" s="46"/>
-      <c r="AS33" s="46"/>
-      <c r="AT33" s="46"/>
-      <c r="CD33" s="46"/>
-      <c r="CE33" s="46"/>
-      <c r="CF33" s="46"/>
-      <c r="CG33" s="46"/>
-      <c r="CH33" s="46"/>
     </row>
     <row r="34" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
@@ -3163,141 +2947,137 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="AQ34" s="46"/>
-      <c r="AR34" s="46"/>
-      <c r="AS34" s="46"/>
-      <c r="AT34" s="46"/>
     </row>
     <row r="35" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
-      <c r="AB35" s="50"/>
-      <c r="AC35" s="50"/>
-      <c r="AD35" s="50"/>
-      <c r="AE35" s="50"/>
-      <c r="AF35" s="50"/>
-      <c r="AG35" s="50"/>
-      <c r="AH35" s="50"/>
-      <c r="AI35" s="50"/>
-      <c r="AJ35" s="50"/>
-      <c r="AK35" s="50"/>
-      <c r="AL35" s="50"/>
-      <c r="AM35" s="50"/>
-      <c r="AN35" s="50"/>
-      <c r="AO35" s="50"/>
-      <c r="AP35" s="50"/>
-      <c r="AQ35" s="51"/>
-      <c r="AR35" s="51"/>
-      <c r="AS35" s="51"/>
-      <c r="AT35" s="51"/>
-      <c r="AU35" s="50"/>
-      <c r="AV35" s="50"/>
-      <c r="AW35" s="50"/>
-      <c r="AX35" s="50"/>
-      <c r="AY35" s="50"/>
-      <c r="AZ35" s="50"/>
-      <c r="BA35" s="50"/>
-      <c r="BB35" s="50"/>
-      <c r="BC35" s="50"/>
-      <c r="BD35" s="50"/>
-      <c r="BE35" s="50"/>
-      <c r="BF35" s="50"/>
-      <c r="BG35" s="50"/>
-      <c r="BH35" s="50"/>
-      <c r="BI35" s="50"/>
-      <c r="BJ35" s="50"/>
-      <c r="BK35" s="50"/>
-      <c r="BL35" s="50"/>
-      <c r="BM35" s="50"/>
-      <c r="BN35" s="50"/>
-      <c r="BO35" s="50"/>
-      <c r="BP35" s="50"/>
-      <c r="BQ35" s="50"/>
-      <c r="BR35" s="50"/>
-      <c r="BS35" s="50"/>
-      <c r="BT35" s="50"/>
-      <c r="BU35" s="50"/>
-      <c r="BV35" s="50"/>
-      <c r="BW35" s="50"/>
-      <c r="BX35" s="50"/>
-      <c r="BY35" s="50"/>
-      <c r="BZ35" s="50"/>
-      <c r="CA35" s="50"/>
-      <c r="CB35" s="50"/>
-      <c r="CC35" s="50"/>
-      <c r="CD35" s="50"/>
-      <c r="CE35" s="50"/>
-      <c r="CF35" s="50"/>
-      <c r="CG35" s="50"/>
-      <c r="CH35" s="50"/>
-      <c r="CI35" s="50"/>
-      <c r="CJ35" s="50"/>
-      <c r="CK35" s="50"/>
-      <c r="CL35" s="50"/>
-      <c r="CM35" s="50"/>
-      <c r="CN35" s="50"/>
-      <c r="CO35" s="50"/>
-      <c r="CP35" s="50"/>
-      <c r="CQ35" s="50"/>
-      <c r="CR35" s="50"/>
-      <c r="CS35" s="50"/>
-      <c r="CT35" s="50"/>
-      <c r="CU35" s="50"/>
-      <c r="CV35" s="50"/>
-      <c r="CW35" s="50"/>
-      <c r="CX35" s="50"/>
-      <c r="CY35" s="50"/>
-      <c r="CZ35" s="50"/>
-      <c r="DA35" s="50"/>
-      <c r="DB35" s="50"/>
-      <c r="DC35" s="50"/>
-      <c r="DD35" s="50"/>
-      <c r="DE35" s="50"/>
-      <c r="DF35" s="50"/>
-      <c r="DG35" s="50"/>
-      <c r="DH35" s="50"/>
-      <c r="DI35" s="50"/>
-      <c r="DJ35" s="50"/>
-      <c r="DK35" s="50"/>
-      <c r="DL35" s="50"/>
-      <c r="DM35" s="50"/>
-      <c r="DN35" s="50"/>
-      <c r="DO35" s="50"/>
-      <c r="DP35" s="50"/>
-      <c r="DQ35" s="50"/>
-      <c r="DR35" s="50"/>
-      <c r="DS35" s="50"/>
-      <c r="DT35" s="50"/>
-      <c r="DU35" s="50"/>
-      <c r="DV35" s="50"/>
-      <c r="DW35" s="50"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+      <c r="AE35" s="48"/>
+      <c r="AF35" s="48"/>
+      <c r="AG35" s="48"/>
+      <c r="AH35" s="48"/>
+      <c r="AI35" s="48"/>
+      <c r="AJ35" s="48"/>
+      <c r="AK35" s="48"/>
+      <c r="AL35" s="48"/>
+      <c r="AM35" s="48"/>
+      <c r="AN35" s="48"/>
+      <c r="AO35" s="48"/>
+      <c r="AP35" s="48"/>
+      <c r="AQ35" s="48"/>
+      <c r="AR35" s="48"/>
+      <c r="AS35" s="48"/>
+      <c r="AT35" s="48"/>
+      <c r="AU35" s="48"/>
+      <c r="AV35" s="48"/>
+      <c r="AW35" s="48"/>
+      <c r="AX35" s="48"/>
+      <c r="AY35" s="48"/>
+      <c r="AZ35" s="48"/>
+      <c r="BA35" s="48"/>
+      <c r="BB35" s="48"/>
+      <c r="BC35" s="48"/>
+      <c r="BD35" s="48"/>
+      <c r="BE35" s="48"/>
+      <c r="BF35" s="48"/>
+      <c r="BG35" s="48"/>
+      <c r="BH35" s="48"/>
+      <c r="BI35" s="48"/>
+      <c r="BJ35" s="48"/>
+      <c r="BK35" s="48"/>
+      <c r="BL35" s="48"/>
+      <c r="BM35" s="48"/>
+      <c r="BN35" s="48"/>
+      <c r="BO35" s="48"/>
+      <c r="BP35" s="48"/>
+      <c r="BQ35" s="48"/>
+      <c r="BR35" s="48"/>
+      <c r="BS35" s="48"/>
+      <c r="BT35" s="48"/>
+      <c r="BU35" s="48"/>
+      <c r="BV35" s="48"/>
+      <c r="BW35" s="48"/>
+      <c r="BX35" s="48"/>
+      <c r="BY35" s="48"/>
+      <c r="BZ35" s="48"/>
+      <c r="CA35" s="48"/>
+      <c r="CB35" s="48"/>
+      <c r="CC35" s="48"/>
+      <c r="CD35" s="48"/>
+      <c r="CE35" s="48"/>
+      <c r="CF35" s="48"/>
+      <c r="CG35" s="48"/>
+      <c r="CH35" s="48"/>
+      <c r="CI35" s="48"/>
+      <c r="CJ35" s="48"/>
+      <c r="CK35" s="48"/>
+      <c r="CL35" s="48"/>
+      <c r="CM35" s="48"/>
+      <c r="CN35" s="48"/>
+      <c r="CO35" s="48"/>
+      <c r="CP35" s="48"/>
+      <c r="CQ35" s="48"/>
+      <c r="CR35" s="48"/>
+      <c r="CS35" s="48"/>
+      <c r="CT35" s="48"/>
+      <c r="CU35" s="48"/>
+      <c r="CV35" s="48"/>
+      <c r="CW35" s="48"/>
+      <c r="CX35" s="48"/>
+      <c r="CY35" s="48"/>
+      <c r="CZ35" s="48"/>
+      <c r="DA35" s="48"/>
+      <c r="DB35" s="48"/>
+      <c r="DC35" s="48"/>
+      <c r="DD35" s="48"/>
+      <c r="DE35" s="48"/>
+      <c r="DF35" s="48"/>
+      <c r="DG35" s="48"/>
+      <c r="DH35" s="48"/>
+      <c r="DI35" s="48"/>
+      <c r="DJ35" s="48"/>
+      <c r="DK35" s="48"/>
+      <c r="DL35" s="48"/>
+      <c r="DM35" s="48"/>
+      <c r="DN35" s="48"/>
+      <c r="DO35" s="48"/>
+      <c r="DP35" s="48"/>
+      <c r="DQ35" s="48"/>
+      <c r="DR35" s="48"/>
+      <c r="DS35" s="48"/>
+      <c r="DT35" s="48"/>
+      <c r="DU35" s="48"/>
+      <c r="DV35" s="48"/>
+      <c r="DW35" s="48"/>
     </row>
     <row r="36" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -3306,7 +3086,7 @@
       <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="52"/>
+      <c r="C36" s="49"/>
       <c r="D36" t="s">
         <v>45</v>
       </c>

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE61ED3-FB84-49E1-AF20-E92D72BC64F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6209C584-7215-4D7A-919E-38CEB10BFD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
@@ -277,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,12 +341,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,9 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,7 +853,7 @@
   <dimension ref="A1:DY56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CG15" sqref="CG15"/>
+      <selection activeCell="CD14" sqref="CD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1816,6 +1808,7 @@
       <c r="BS6" s="51"/>
       <c r="BT6" s="52"/>
       <c r="BU6" s="45"/>
+      <c r="BV6" s="45"/>
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.35">
       <c r="C7" s="6"/>
@@ -2253,12 +2246,12 @@
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="BU15" s="53"/>
-      <c r="BV15" s="54"/>
-      <c r="BW15" s="55"/>
+      <c r="BV15" s="55"/>
+      <c r="BW15" s="64"/>
     </row>
     <row r="16" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -2285,6 +2278,7 @@
       <c r="C17" s="27"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
+      <c r="BV17" s="8"/>
       <c r="BZ17" s="53"/>
       <c r="CA17" s="55"/>
     </row>

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6209C584-7215-4D7A-919E-38CEB10BFD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4062D538-975D-4F98-A3B7-6B7D1E3E4BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
+    <workbookView xWindow="110" yWindow="130" windowWidth="22980" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +341,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -535,7 +541,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,7 +862,7 @@
   <dimension ref="A1:DY56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CD14" sqref="CD14"/>
+      <selection activeCell="H11" sqref="H11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2247,8 +2256,12 @@
         <v>21</v>
       </c>
       <c r="C15" s="28"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="43">
+        <v>45053</v>
+      </c>
+      <c r="E15" s="43">
+        <v>45054</v>
+      </c>
       <c r="BU15" s="53"/>
       <c r="BV15" s="55"/>
       <c r="BW15" s="64"/>
@@ -2260,7 +2273,7 @@
       <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="BW16" s="53"/>

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4062D538-975D-4F98-A3B7-6B7D1E3E4BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC1FD61-5FAB-4BCF-8A6A-973342BD1361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="110" yWindow="130" windowWidth="22980" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,12 +341,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -542,9 +536,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,7 +856,7 @@
   <dimension ref="A1:DY56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:M11"/>
+      <selection activeCell="CC16" sqref="CC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2273,13 +2267,17 @@
       <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="43">
+        <v>45055</v>
+      </c>
+      <c r="E16" s="43">
+        <v>45057</v>
+      </c>
       <c r="BW16" s="53"/>
-      <c r="BX16" s="54"/>
+      <c r="BX16" s="65"/>
       <c r="BY16" s="54"/>
-      <c r="BZ16" s="55"/>
+      <c r="BZ16" s="64"/>
     </row>
     <row r="17" spans="1:127" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -2288,12 +2286,17 @@
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="43">
+        <v>45054</v>
+      </c>
+      <c r="E17" s="43">
+        <v>45057</v>
+      </c>
       <c r="BV17" s="8"/>
-      <c r="BZ17" s="53"/>
-      <c r="CA17" s="55"/>
+      <c r="BY17" s="8"/>
+      <c r="BZ17" s="67"/>
+      <c r="CA17" s="66"/>
     </row>
     <row r="18" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC1FD61-5FAB-4BCF-8A6A-973342BD1361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ECC469-973E-4710-B50A-1FC347C2ADCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
+    <workbookView xWindow="110" yWindow="130" windowWidth="22980" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,8 +537,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9F7A41-D1C8-40CA-B4D4-A4E7F54E7CAD}">
   <dimension ref="A1:DY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CC16" sqref="CC16"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CT40" sqref="CT40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2295,8 +2295,8 @@
       </c>
       <c r="BV17" s="8"/>
       <c r="BY17" s="8"/>
-      <c r="BZ17" s="67"/>
-      <c r="CA17" s="66"/>
+      <c r="BZ17" s="66"/>
+      <c r="CA17" s="64"/>
     </row>
     <row r="18" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -3130,6 +3130,7 @@
       <c r="AU36" s="33"/>
       <c r="AV36" s="33"/>
       <c r="AW36" s="34"/>
+      <c r="BZ36" s="67"/>
     </row>
     <row r="37" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ECC469-973E-4710-B50A-1FC347C2ADCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38CCC1E-E226-4BF7-A629-78D3CD0D16D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="110" yWindow="130" windowWidth="22980" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +341,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -539,6 +545,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9F7A41-D1C8-40CA-B4D4-A4E7F54E7CAD}">
   <dimension ref="A1:DY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CT40" sqref="CT40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CA20" sqref="CA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2443,9 +2452,12 @@
       <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="43">
+        <v>45059</v>
+      </c>
       <c r="E20" s="2"/>
+      <c r="CA20" s="17"/>
       <c r="CB20" s="56"/>
       <c r="CC20" s="57"/>
       <c r="CD20" s="57"/>

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38CCC1E-E226-4BF7-A629-78D3CD0D16D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09CFF81-C7B9-4025-8ADD-4DA65E650952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -534,7 +534,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -865,7 +864,7 @@
   <dimension ref="A1:DY56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CA20" sqref="CA20"/>
+      <selection activeCell="CP10" sqref="CP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1821,6 +1820,9 @@
       <c r="BT6" s="52"/>
       <c r="BU6" s="45"/>
       <c r="BV6" s="45"/>
+      <c r="CA6" s="45"/>
+      <c r="CB6" s="45"/>
+      <c r="CH6" s="45"/>
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.35">
       <c r="C7" s="6"/>
@@ -2267,7 +2269,7 @@
       </c>
       <c r="BU15" s="53"/>
       <c r="BV15" s="55"/>
-      <c r="BW15" s="64"/>
+      <c r="BW15" s="63"/>
     </row>
     <row r="16" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -2284,9 +2286,9 @@
         <v>45057</v>
       </c>
       <c r="BW16" s="53"/>
-      <c r="BX16" s="65"/>
+      <c r="BX16" s="64"/>
       <c r="BY16" s="54"/>
-      <c r="BZ16" s="64"/>
+      <c r="BZ16" s="63"/>
     </row>
     <row r="17" spans="1:127" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -2304,8 +2306,8 @@
       </c>
       <c r="BV17" s="8"/>
       <c r="BY17" s="8"/>
-      <c r="BZ17" s="66"/>
-      <c r="CA17" s="64"/>
+      <c r="BZ17" s="65"/>
+      <c r="CA17" s="63"/>
     </row>
     <row r="18" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -2452,16 +2454,17 @@
       <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="43">
         <v>45059</v>
       </c>
       <c r="E20" s="2"/>
       <c r="CA20" s="17"/>
       <c r="CB20" s="56"/>
-      <c r="CC20" s="57"/>
-      <c r="CD20" s="57"/>
-      <c r="CE20" s="58"/>
+      <c r="CC20" s="64"/>
+      <c r="CD20" s="64"/>
+      <c r="CE20" s="63"/>
+      <c r="CH20" s="17"/>
     </row>
     <row r="21" spans="1:127" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
@@ -2474,7 +2477,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="CE21" s="56"/>
-      <c r="CF21" s="58"/>
+      <c r="CF21" s="57"/>
     </row>
     <row r="22" spans="1:127" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
@@ -2487,7 +2490,8 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="CF22" s="56"/>
-      <c r="CG22" s="58"/>
+      <c r="CG22" s="57"/>
+      <c r="CH22" s="17"/>
     </row>
     <row r="23" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
@@ -2637,9 +2641,9 @@
       <c r="C25" s="27"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="CH25" s="59"/>
-      <c r="CI25" s="60"/>
-      <c r="CJ25" s="61"/>
+      <c r="CH25" s="58"/>
+      <c r="CI25" s="59"/>
+      <c r="CJ25" s="60"/>
     </row>
     <row r="26" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -2789,8 +2793,8 @@
       <c r="C28" s="27"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="CK28" s="62"/>
-      <c r="CL28" s="63"/>
+      <c r="CK28" s="61"/>
+      <c r="CL28" s="62"/>
     </row>
     <row r="29" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
@@ -3142,7 +3146,7 @@
       <c r="AU36" s="33"/>
       <c r="AV36" s="33"/>
       <c r="AW36" s="34"/>
-      <c r="BZ36" s="67"/>
+      <c r="BZ36" s="66"/>
     </row>
     <row r="37" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09CFF81-C7B9-4025-8ADD-4DA65E650952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63354A2-DA02-4354-958E-6E062C443312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
+    <workbookView xWindow="2230" yWindow="120" windowWidth="35890" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="54">
   <si>
     <t>Individual Project</t>
   </si>
@@ -188,9 +188,6 @@
     <t>June</t>
   </si>
   <si>
-    <t>IN3005 Deadline</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meeting </t>
   </si>
   <si>
@@ -201,12 +198,6 @@
   </si>
   <si>
     <t>Final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STILL TO-DO ATTACK CLASS </t>
-  </si>
-  <si>
-    <t>Implement GUNS FOR THE PLAYER AND GUARDS</t>
   </si>
 </sst>
 </file>
@@ -277,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,20 +329,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -422,11 +401,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -505,7 +495,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -536,15 +525,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -864,7 +857,7 @@
   <dimension ref="A1:DY56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CP10" sqref="CP10"/>
+      <selection activeCell="CW10" sqref="CW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -878,25 +871,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:129" ht="31" x14ac:dyDescent="0.7">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="CB1" s="41" t="s">
+      <c r="Q1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="CB1" s="40"/>
+      <c r="CN1" s="40"/>
+      <c r="CY1" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="DB1" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="CN1" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="CY1" s="41" t="s">
+      <c r="DF1" s="40" t="s">
         <v>53</v>
-      </c>
-      <c r="DB1" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="DF1" s="41" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:129" ht="26" x14ac:dyDescent="0.6">
@@ -910,13 +899,11 @@
       <c r="BO2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="CB2" s="38"/>
-      <c r="CN2" s="45"/>
       <c r="CT2" s="7" t="s">
         <v>49</v>
       </c>
       <c r="CY2" s="37"/>
-      <c r="DB2" s="45"/>
+      <c r="DB2" s="44"/>
       <c r="DF2" s="37"/>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.35">
@@ -1288,19 +1275,19 @@
       </c>
     </row>
     <row r="4" spans="1:129" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1788,7 +1775,7 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="40"/>
+      <c r="AN6" s="39"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
@@ -1815,14 +1802,20 @@
       <c r="BL6" s="2"/>
       <c r="BM6" s="29"/>
       <c r="BN6" s="30"/>
-      <c r="BR6" s="50"/>
-      <c r="BS6" s="51"/>
-      <c r="BT6" s="52"/>
-      <c r="BU6" s="45"/>
-      <c r="BV6" s="45"/>
-      <c r="CA6" s="45"/>
-      <c r="CB6" s="45"/>
-      <c r="CH6" s="45"/>
+      <c r="BR6" s="49"/>
+      <c r="BS6" s="50"/>
+      <c r="BT6" s="50"/>
+      <c r="BU6" s="50"/>
+      <c r="BV6" s="51"/>
+      <c r="CA6" s="49"/>
+      <c r="CB6" s="51"/>
+      <c r="CH6" s="49"/>
+      <c r="CI6" s="50"/>
+      <c r="CJ6" s="51"/>
+      <c r="CO6" s="49"/>
+      <c r="CP6" s="51"/>
+      <c r="CR6" s="49"/>
+      <c r="CS6" s="51"/>
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.35">
       <c r="C7" s="6"/>
@@ -2027,21 +2020,21 @@
         <v>14</v>
       </c>
       <c r="C9" s="28"/>
-      <c r="D9" s="43">
+      <c r="D9" s="42">
         <v>45038</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="42">
         <v>45051</v>
       </c>
       <c r="BF9" s="35"/>
-      <c r="BJ9" s="44"/>
+      <c r="BJ9" s="43"/>
       <c r="BK9" s="9"/>
       <c r="BL9" s="9"/>
       <c r="BM9" s="9"/>
       <c r="BN9" s="9"/>
       <c r="BO9" s="9"/>
       <c r="BP9" s="10"/>
-      <c r="BR9" s="44"/>
+      <c r="BR9" s="43"/>
       <c r="BS9" s="10"/>
     </row>
     <row r="10" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
@@ -2052,14 +2045,14 @@
         <v>16</v>
       </c>
       <c r="C10" s="28"/>
-      <c r="D10" s="43">
+      <c r="D10" s="42">
         <v>45020</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="42">
         <v>45037</v>
       </c>
       <c r="AN10" s="35"/>
-      <c r="AX10" s="44"/>
+      <c r="AX10" s="43"/>
       <c r="AY10" s="9"/>
       <c r="AZ10" s="9"/>
       <c r="BA10" s="9"/>
@@ -2067,9 +2060,6 @@
       <c r="BC10" s="9"/>
       <c r="BD10" s="9"/>
       <c r="BE10" s="10"/>
-      <c r="BQ10" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="11" spans="1:129" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -2079,18 +2069,15 @@
         <v>18</v>
       </c>
       <c r="C11" s="28"/>
-      <c r="D11" s="43">
+      <c r="D11" s="42">
         <v>45006</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="42">
         <v>45008</v>
       </c>
       <c r="Z11" s="36"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="10"/>
-      <c r="BQ11" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="12" spans="1:129" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -2100,17 +2087,17 @@
         <v>19</v>
       </c>
       <c r="C12" s="28"/>
-      <c r="D12" s="43">
+      <c r="D12" s="42">
         <v>45006</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="42">
         <v>45051</v>
       </c>
       <c r="Z12" s="35"/>
       <c r="AN12" s="35"/>
-      <c r="BE12" s="44"/>
+      <c r="BE12" s="43"/>
       <c r="BF12" s="10"/>
-      <c r="BR12" s="44"/>
+      <c r="BR12" s="43"/>
       <c r="BS12" s="9"/>
       <c r="BT12" s="9"/>
       <c r="BU12" s="10"/>
@@ -2261,15 +2248,14 @@
         <v>21</v>
       </c>
       <c r="C15" s="28"/>
-      <c r="D15" s="43">
+      <c r="D15" s="42">
         <v>45053</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="42">
         <v>45054</v>
       </c>
-      <c r="BU15" s="53"/>
-      <c r="BV15" s="55"/>
-      <c r="BW15" s="63"/>
+      <c r="BU15" s="52"/>
+      <c r="BV15" s="54"/>
     </row>
     <row r="16" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -2279,16 +2265,15 @@
         <v>23</v>
       </c>
       <c r="C16" s="28"/>
-      <c r="D16" s="43">
+      <c r="D16" s="42">
         <v>45055</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="42">
         <v>45057</v>
       </c>
-      <c r="BW16" s="53"/>
-      <c r="BX16" s="64"/>
-      <c r="BY16" s="54"/>
-      <c r="BZ16" s="63"/>
+      <c r="BW16" s="52"/>
+      <c r="BX16" s="53"/>
+      <c r="BY16" s="64"/>
     </row>
     <row r="17" spans="1:127" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -2298,16 +2283,14 @@
         <v>19</v>
       </c>
       <c r="C17" s="28"/>
-      <c r="D17" s="43">
+      <c r="D17" s="42">
         <v>45054</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="42">
         <v>45057</v>
       </c>
-      <c r="BV17" s="8"/>
-      <c r="BY17" s="8"/>
-      <c r="BZ17" s="65"/>
-      <c r="CA17" s="63"/>
+      <c r="BV17" s="62"/>
+      <c r="BY17" s="62"/>
     </row>
     <row r="18" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -2454,17 +2437,33 @@
       <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="43">
+      <c r="C20" s="28"/>
+      <c r="D20" s="42">
         <v>45059</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="CA20" s="17"/>
-      <c r="CB20" s="56"/>
-      <c r="CC20" s="64"/>
-      <c r="CD20" s="64"/>
+      <c r="E20" s="42">
+        <v>45074</v>
+      </c>
+      <c r="CA20" s="55"/>
+      <c r="CB20" s="63"/>
+      <c r="CC20" s="63"/>
+      <c r="CD20" s="63"/>
       <c r="CE20" s="63"/>
-      <c r="CH20" s="17"/>
+      <c r="CF20" s="63"/>
+      <c r="CG20" s="63"/>
+      <c r="CH20" s="63"/>
+      <c r="CI20" s="63"/>
+      <c r="CJ20" s="63"/>
+      <c r="CK20" s="63"/>
+      <c r="CL20" s="63"/>
+      <c r="CM20" s="63"/>
+      <c r="CN20" s="63"/>
+      <c r="CO20" s="63"/>
+      <c r="CP20" s="56"/>
+      <c r="CQ20" s="65"/>
+      <c r="CR20" s="65"/>
+      <c r="CS20" s="65"/>
+      <c r="CT20" s="65"/>
     </row>
     <row r="21" spans="1:127" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
@@ -2473,11 +2472,33 @@
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="CE21" s="56"/>
-      <c r="CF21" s="57"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="42">
+        <v>45075</v>
+      </c>
+      <c r="E21" s="42">
+        <v>45077</v>
+      </c>
+      <c r="CA21" s="65"/>
+      <c r="CB21" s="65"/>
+      <c r="CC21" s="65"/>
+      <c r="CD21" s="65"/>
+      <c r="CE21" s="65"/>
+      <c r="CF21" s="65"/>
+      <c r="CG21" s="65"/>
+      <c r="CH21" s="66"/>
+      <c r="CI21" s="66"/>
+      <c r="CJ21" s="66"/>
+      <c r="CK21" s="66"/>
+      <c r="CL21" s="65"/>
+      <c r="CM21" s="65"/>
+      <c r="CN21" s="65"/>
+      <c r="CO21" s="65"/>
+      <c r="CP21" s="65"/>
+      <c r="CQ21" s="55"/>
+      <c r="CR21" s="63"/>
+      <c r="CS21" s="56"/>
+      <c r="CT21" s="65"/>
     </row>
     <row r="22" spans="1:127" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
@@ -2486,12 +2507,33 @@
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="CF22" s="56"/>
-      <c r="CG22" s="57"/>
-      <c r="CH22" s="17"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="42">
+        <v>45076</v>
+      </c>
+      <c r="E22" s="42">
+        <v>45078</v>
+      </c>
+      <c r="CA22" s="55"/>
+      <c r="CB22" s="56"/>
+      <c r="CC22" s="65"/>
+      <c r="CD22" s="65"/>
+      <c r="CE22" s="65"/>
+      <c r="CF22" s="65"/>
+      <c r="CG22" s="65"/>
+      <c r="CH22" s="66"/>
+      <c r="CI22" s="66"/>
+      <c r="CJ22" s="66"/>
+      <c r="CK22" s="66"/>
+      <c r="CL22" s="65"/>
+      <c r="CM22" s="65"/>
+      <c r="CN22" s="65"/>
+      <c r="CO22" s="65"/>
+      <c r="CP22" s="65"/>
+      <c r="CQ22" s="65"/>
+      <c r="CR22" s="55"/>
+      <c r="CS22" s="63"/>
+      <c r="CT22" s="56"/>
     </row>
     <row r="23" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
@@ -2638,12 +2680,15 @@
       <c r="B25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="CH25" s="58"/>
-      <c r="CI25" s="59"/>
-      <c r="CJ25" s="60"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="CK25" s="66"/>
+      <c r="CL25" s="66"/>
+      <c r="CM25" s="66"/>
+      <c r="CN25" s="66"/>
+      <c r="CU25" s="57"/>
+      <c r="CV25" s="58"/>
     </row>
     <row r="26" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -2790,11 +2835,14 @@
       <c r="B28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="CK28" s="61"/>
-      <c r="CL28" s="62"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="CO28" s="66"/>
+      <c r="CP28" s="66"/>
+      <c r="CQ28" s="66"/>
+      <c r="CW28" s="59"/>
+      <c r="CX28" s="60"/>
     </row>
     <row r="29" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
@@ -2975,135 +3023,135 @@
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="48"/>
-      <c r="AD35" s="48"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="48"/>
-      <c r="AG35" s="48"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="48"/>
-      <c r="AK35" s="48"/>
-      <c r="AL35" s="48"/>
-      <c r="AM35" s="48"/>
-      <c r="AN35" s="48"/>
-      <c r="AO35" s="48"/>
-      <c r="AP35" s="48"/>
-      <c r="AQ35" s="48"/>
-      <c r="AR35" s="48"/>
-      <c r="AS35" s="48"/>
-      <c r="AT35" s="48"/>
-      <c r="AU35" s="48"/>
-      <c r="AV35" s="48"/>
-      <c r="AW35" s="48"/>
-      <c r="AX35" s="48"/>
-      <c r="AY35" s="48"/>
-      <c r="AZ35" s="48"/>
-      <c r="BA35" s="48"/>
-      <c r="BB35" s="48"/>
-      <c r="BC35" s="48"/>
-      <c r="BD35" s="48"/>
-      <c r="BE35" s="48"/>
-      <c r="BF35" s="48"/>
-      <c r="BG35" s="48"/>
-      <c r="BH35" s="48"/>
-      <c r="BI35" s="48"/>
-      <c r="BJ35" s="48"/>
-      <c r="BK35" s="48"/>
-      <c r="BL35" s="48"/>
-      <c r="BM35" s="48"/>
-      <c r="BN35" s="48"/>
-      <c r="BO35" s="48"/>
-      <c r="BP35" s="48"/>
-      <c r="BQ35" s="48"/>
-      <c r="BR35" s="48"/>
-      <c r="BS35" s="48"/>
-      <c r="BT35" s="48"/>
-      <c r="BU35" s="48"/>
-      <c r="BV35" s="48"/>
-      <c r="BW35" s="48"/>
-      <c r="BX35" s="48"/>
-      <c r="BY35" s="48"/>
-      <c r="BZ35" s="48"/>
-      <c r="CA35" s="48"/>
-      <c r="CB35" s="48"/>
-      <c r="CC35" s="48"/>
-      <c r="CD35" s="48"/>
-      <c r="CE35" s="48"/>
-      <c r="CF35" s="48"/>
-      <c r="CG35" s="48"/>
-      <c r="CH35" s="48"/>
-      <c r="CI35" s="48"/>
-      <c r="CJ35" s="48"/>
-      <c r="CK35" s="48"/>
-      <c r="CL35" s="48"/>
-      <c r="CM35" s="48"/>
-      <c r="CN35" s="48"/>
-      <c r="CO35" s="48"/>
-      <c r="CP35" s="48"/>
-      <c r="CQ35" s="48"/>
-      <c r="CR35" s="48"/>
-      <c r="CS35" s="48"/>
-      <c r="CT35" s="48"/>
-      <c r="CU35" s="48"/>
-      <c r="CV35" s="48"/>
-      <c r="CW35" s="48"/>
-      <c r="CX35" s="48"/>
-      <c r="CY35" s="48"/>
-      <c r="CZ35" s="48"/>
-      <c r="DA35" s="48"/>
-      <c r="DB35" s="48"/>
-      <c r="DC35" s="48"/>
-      <c r="DD35" s="48"/>
-      <c r="DE35" s="48"/>
-      <c r="DF35" s="48"/>
-      <c r="DG35" s="48"/>
-      <c r="DH35" s="48"/>
-      <c r="DI35" s="48"/>
-      <c r="DJ35" s="48"/>
-      <c r="DK35" s="48"/>
-      <c r="DL35" s="48"/>
-      <c r="DM35" s="48"/>
-      <c r="DN35" s="48"/>
-      <c r="DO35" s="48"/>
-      <c r="DP35" s="48"/>
-      <c r="DQ35" s="48"/>
-      <c r="DR35" s="48"/>
-      <c r="DS35" s="48"/>
-      <c r="DT35" s="48"/>
-      <c r="DU35" s="48"/>
-      <c r="DV35" s="48"/>
-      <c r="DW35" s="48"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
+      <c r="U35" s="47"/>
+      <c r="V35" s="47"/>
+      <c r="W35" s="47"/>
+      <c r="X35" s="47"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="47"/>
+      <c r="AB35" s="47"/>
+      <c r="AC35" s="47"/>
+      <c r="AD35" s="47"/>
+      <c r="AE35" s="47"/>
+      <c r="AF35" s="47"/>
+      <c r="AG35" s="47"/>
+      <c r="AH35" s="47"/>
+      <c r="AI35" s="47"/>
+      <c r="AJ35" s="47"/>
+      <c r="AK35" s="47"/>
+      <c r="AL35" s="47"/>
+      <c r="AM35" s="47"/>
+      <c r="AN35" s="47"/>
+      <c r="AO35" s="47"/>
+      <c r="AP35" s="47"/>
+      <c r="AQ35" s="47"/>
+      <c r="AR35" s="47"/>
+      <c r="AS35" s="47"/>
+      <c r="AT35" s="47"/>
+      <c r="AU35" s="47"/>
+      <c r="AV35" s="47"/>
+      <c r="AW35" s="47"/>
+      <c r="AX35" s="47"/>
+      <c r="AY35" s="47"/>
+      <c r="AZ35" s="47"/>
+      <c r="BA35" s="47"/>
+      <c r="BB35" s="47"/>
+      <c r="BC35" s="47"/>
+      <c r="BD35" s="47"/>
+      <c r="BE35" s="47"/>
+      <c r="BF35" s="47"/>
+      <c r="BG35" s="47"/>
+      <c r="BH35" s="47"/>
+      <c r="BI35" s="47"/>
+      <c r="BJ35" s="47"/>
+      <c r="BK35" s="47"/>
+      <c r="BL35" s="47"/>
+      <c r="BM35" s="47"/>
+      <c r="BN35" s="47"/>
+      <c r="BO35" s="47"/>
+      <c r="BP35" s="47"/>
+      <c r="BQ35" s="47"/>
+      <c r="BR35" s="47"/>
+      <c r="BS35" s="47"/>
+      <c r="BT35" s="47"/>
+      <c r="BU35" s="47"/>
+      <c r="BV35" s="47"/>
+      <c r="BW35" s="47"/>
+      <c r="BX35" s="47"/>
+      <c r="BY35" s="47"/>
+      <c r="BZ35" s="47"/>
+      <c r="CA35" s="47"/>
+      <c r="CB35" s="47"/>
+      <c r="CC35" s="47"/>
+      <c r="CD35" s="47"/>
+      <c r="CE35" s="47"/>
+      <c r="CF35" s="47"/>
+      <c r="CG35" s="47"/>
+      <c r="CH35" s="47"/>
+      <c r="CI35" s="47"/>
+      <c r="CJ35" s="47"/>
+      <c r="CK35" s="47"/>
+      <c r="CL35" s="47"/>
+      <c r="CM35" s="47"/>
+      <c r="CN35" s="47"/>
+      <c r="CO35" s="47"/>
+      <c r="CP35" s="47"/>
+      <c r="CQ35" s="47"/>
+      <c r="CR35" s="47"/>
+      <c r="CS35" s="47"/>
+      <c r="CT35" s="47"/>
+      <c r="CU35" s="47"/>
+      <c r="CV35" s="47"/>
+      <c r="CW35" s="47"/>
+      <c r="CX35" s="47"/>
+      <c r="CY35" s="47"/>
+      <c r="CZ35" s="47"/>
+      <c r="DA35" s="47"/>
+      <c r="DB35" s="47"/>
+      <c r="DC35" s="47"/>
+      <c r="DD35" s="47"/>
+      <c r="DE35" s="47"/>
+      <c r="DF35" s="47"/>
+      <c r="DG35" s="47"/>
+      <c r="DH35" s="47"/>
+      <c r="DI35" s="47"/>
+      <c r="DJ35" s="47"/>
+      <c r="DK35" s="47"/>
+      <c r="DL35" s="47"/>
+      <c r="DM35" s="47"/>
+      <c r="DN35" s="47"/>
+      <c r="DO35" s="47"/>
+      <c r="DP35" s="47"/>
+      <c r="DQ35" s="47"/>
+      <c r="DR35" s="47"/>
+      <c r="DS35" s="47"/>
+      <c r="DT35" s="47"/>
+      <c r="DU35" s="47"/>
+      <c r="DV35" s="47"/>
+      <c r="DW35" s="47"/>
     </row>
     <row r="36" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -3112,7 +3160,7 @@
       <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="48"/>
       <c r="D36" t="s">
         <v>45</v>
       </c>
@@ -3146,7 +3194,7 @@
       <c r="AU36" s="33"/>
       <c r="AV36" s="33"/>
       <c r="AW36" s="34"/>
-      <c r="BZ36" s="66"/>
+      <c r="BZ36" s="61"/>
     </row>
     <row r="37" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63354A2-DA02-4354-958E-6E062C443312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28175253-9807-49E1-9DA3-CC48C1E8EEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2230" yWindow="120" windowWidth="35890" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
+    <workbookView xWindow="17640" yWindow="180" windowWidth="20410" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="53">
   <si>
     <t>Individual Project</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>Other Coursework</t>
-  </si>
-  <si>
-    <t>Code</t>
   </si>
   <si>
     <t>Final</t>
@@ -416,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -474,9 +471,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -526,20 +520,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,7 +848,7 @@
   <dimension ref="A1:DY56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CW10" sqref="CW10"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -871,21 +862,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:129" ht="31" x14ac:dyDescent="0.7">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="CB1" s="40"/>
-      <c r="CN1" s="40"/>
-      <c r="CY1" s="40" t="s">
+      <c r="Q1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="CB1" s="39"/>
+      <c r="CN1" s="39"/>
+      <c r="CY1" s="39"/>
+      <c r="DB1" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="DF1" s="39" t="s">
         <v>52</v>
-      </c>
-      <c r="DB1" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="DF1" s="40" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:129" ht="26" x14ac:dyDescent="0.6">
@@ -902,9 +891,9 @@
       <c r="CT2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CY2" s="37"/>
-      <c r="DB2" s="44"/>
-      <c r="DF2" s="37"/>
+      <c r="CY2" s="66"/>
+      <c r="DB2" s="43"/>
+      <c r="DF2" s="36"/>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.35">
       <c r="F3">
@@ -1275,19 +1264,19 @@
       </c>
     </row>
     <row r="4" spans="1:129" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="40" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1764,9 +1753,9 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="30"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="29"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1775,7 +1764,7 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="39"/>
+      <c r="AN6" s="38"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
@@ -1786,36 +1775,43 @@
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
-      <c r="AY6" s="29"/>
-      <c r="AZ6" s="30"/>
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="29"/>
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
-      <c r="BE6" s="29"/>
-      <c r="BF6" s="30"/>
+      <c r="BE6" s="28"/>
+      <c r="BF6" s="29"/>
       <c r="BG6" s="2"/>
       <c r="BH6" s="2"/>
       <c r="BI6" s="2"/>
       <c r="BJ6" s="2"/>
       <c r="BK6" s="2"/>
       <c r="BL6" s="2"/>
-      <c r="BM6" s="29"/>
-      <c r="BN6" s="30"/>
-      <c r="BR6" s="49"/>
-      <c r="BS6" s="50"/>
-      <c r="BT6" s="50"/>
-      <c r="BU6" s="50"/>
-      <c r="BV6" s="51"/>
-      <c r="CA6" s="49"/>
-      <c r="CB6" s="51"/>
-      <c r="CH6" s="49"/>
-      <c r="CI6" s="50"/>
-      <c r="CJ6" s="51"/>
-      <c r="CO6" s="49"/>
-      <c r="CP6" s="51"/>
-      <c r="CR6" s="49"/>
-      <c r="CS6" s="51"/>
+      <c r="BM6" s="28"/>
+      <c r="BN6" s="29"/>
+      <c r="BR6" s="48"/>
+      <c r="BS6" s="49"/>
+      <c r="BT6" s="49"/>
+      <c r="BU6" s="49"/>
+      <c r="BV6" s="50"/>
+      <c r="CA6" s="48"/>
+      <c r="CB6" s="50"/>
+      <c r="CH6" s="48"/>
+      <c r="CI6" s="49"/>
+      <c r="CJ6" s="50"/>
+      <c r="CO6" s="48"/>
+      <c r="CP6" s="50"/>
+      <c r="CR6" s="48"/>
+      <c r="CS6" s="50"/>
+      <c r="CZ6" s="48"/>
+      <c r="DA6" s="49"/>
+      <c r="DB6" s="49"/>
+      <c r="DC6" s="49"/>
+      <c r="DD6" s="49"/>
+      <c r="DE6" s="49"/>
+      <c r="DF6" s="50"/>
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.35">
       <c r="C7" s="6"/>
@@ -2019,22 +2015,22 @@
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="42">
+      <c r="C9" s="27"/>
+      <c r="D9" s="41">
         <v>45038</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
         <v>45051</v>
       </c>
-      <c r="BF9" s="35"/>
-      <c r="BJ9" s="43"/>
+      <c r="BF9" s="34"/>
+      <c r="BJ9" s="42"/>
       <c r="BK9" s="9"/>
       <c r="BL9" s="9"/>
       <c r="BM9" s="9"/>
       <c r="BN9" s="9"/>
       <c r="BO9" s="9"/>
       <c r="BP9" s="10"/>
-      <c r="BR9" s="43"/>
+      <c r="BR9" s="42"/>
       <c r="BS9" s="10"/>
     </row>
     <row r="10" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
@@ -2044,15 +2040,15 @@
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="42">
+      <c r="C10" s="27"/>
+      <c r="D10" s="41">
         <v>45020</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="41">
         <v>45037</v>
       </c>
-      <c r="AN10" s="35"/>
-      <c r="AX10" s="43"/>
+      <c r="AN10" s="34"/>
+      <c r="AX10" s="42"/>
       <c r="AY10" s="9"/>
       <c r="AZ10" s="9"/>
       <c r="BA10" s="9"/>
@@ -2068,14 +2064,14 @@
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="42">
+      <c r="C11" s="27"/>
+      <c r="D11" s="41">
         <v>45006</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="41">
         <v>45008</v>
       </c>
-      <c r="Z11" s="36"/>
+      <c r="Z11" s="35"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="10"/>
     </row>
@@ -2086,18 +2082,18 @@
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="42">
+      <c r="C12" s="27"/>
+      <c r="D12" s="41">
         <v>45006</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <v>45051</v>
       </c>
-      <c r="Z12" s="35"/>
-      <c r="AN12" s="35"/>
-      <c r="BE12" s="43"/>
+      <c r="Z12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="BE12" s="42"/>
       <c r="BF12" s="10"/>
-      <c r="BR12" s="43"/>
+      <c r="BR12" s="42"/>
       <c r="BS12" s="9"/>
       <c r="BT12" s="9"/>
       <c r="BU12" s="10"/>
@@ -2247,15 +2243,15 @@
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="42">
+      <c r="C15" s="27"/>
+      <c r="D15" s="41">
         <v>45053</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <v>45054</v>
       </c>
-      <c r="BU15" s="52"/>
-      <c r="BV15" s="54"/>
+      <c r="BU15" s="51"/>
+      <c r="BV15" s="53"/>
     </row>
     <row r="16" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -2264,16 +2260,16 @@
       <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="42">
+      <c r="C16" s="27"/>
+      <c r="D16" s="41">
         <v>45055</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>45057</v>
       </c>
-      <c r="BW16" s="52"/>
-      <c r="BX16" s="53"/>
-      <c r="BY16" s="64"/>
+      <c r="BW16" s="51"/>
+      <c r="BX16" s="52"/>
+      <c r="BY16" s="61"/>
     </row>
     <row r="17" spans="1:127" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -2282,15 +2278,15 @@
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="42">
+      <c r="C17" s="27"/>
+      <c r="D17" s="41">
         <v>45054</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="41">
         <v>45057</v>
       </c>
-      <c r="BV17" s="62"/>
-      <c r="BY17" s="62"/>
+      <c r="BV17" s="59"/>
+      <c r="BY17" s="59"/>
     </row>
     <row r="18" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -2437,33 +2433,29 @@
       <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="42">
+      <c r="C20" s="27"/>
+      <c r="D20" s="41">
         <v>45059</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="41">
         <v>45074</v>
       </c>
-      <c r="CA20" s="55"/>
-      <c r="CB20" s="63"/>
-      <c r="CC20" s="63"/>
-      <c r="CD20" s="63"/>
-      <c r="CE20" s="63"/>
-      <c r="CF20" s="63"/>
-      <c r="CG20" s="63"/>
-      <c r="CH20" s="63"/>
-      <c r="CI20" s="63"/>
-      <c r="CJ20" s="63"/>
-      <c r="CK20" s="63"/>
-      <c r="CL20" s="63"/>
-      <c r="CM20" s="63"/>
-      <c r="CN20" s="63"/>
-      <c r="CO20" s="63"/>
-      <c r="CP20" s="56"/>
-      <c r="CQ20" s="65"/>
-      <c r="CR20" s="65"/>
-      <c r="CS20" s="65"/>
-      <c r="CT20" s="65"/>
+      <c r="CA20" s="54"/>
+      <c r="CB20" s="60"/>
+      <c r="CC20" s="60"/>
+      <c r="CD20" s="60"/>
+      <c r="CE20" s="60"/>
+      <c r="CF20" s="60"/>
+      <c r="CG20" s="60"/>
+      <c r="CH20" s="60"/>
+      <c r="CI20" s="60"/>
+      <c r="CJ20" s="60"/>
+      <c r="CK20" s="60"/>
+      <c r="CL20" s="60"/>
+      <c r="CM20" s="60"/>
+      <c r="CN20" s="60"/>
+      <c r="CO20" s="60"/>
+      <c r="CP20" s="55"/>
     </row>
     <row r="21" spans="1:127" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
@@ -2472,33 +2464,16 @@
       <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="42">
+      <c r="C21" s="27"/>
+      <c r="D21" s="41">
         <v>45075</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="41">
         <v>45077</v>
       </c>
-      <c r="CA21" s="65"/>
-      <c r="CB21" s="65"/>
-      <c r="CC21" s="65"/>
-      <c r="CD21" s="65"/>
-      <c r="CE21" s="65"/>
-      <c r="CF21" s="65"/>
-      <c r="CG21" s="65"/>
-      <c r="CH21" s="66"/>
-      <c r="CI21" s="66"/>
-      <c r="CJ21" s="66"/>
-      <c r="CK21" s="66"/>
-      <c r="CL21" s="65"/>
-      <c r="CM21" s="65"/>
-      <c r="CN21" s="65"/>
-      <c r="CO21" s="65"/>
-      <c r="CP21" s="65"/>
-      <c r="CQ21" s="55"/>
-      <c r="CR21" s="63"/>
-      <c r="CS21" s="56"/>
-      <c r="CT21" s="65"/>
+      <c r="CQ21" s="54"/>
+      <c r="CR21" s="60"/>
+      <c r="CS21" s="55"/>
     </row>
     <row r="22" spans="1:127" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
@@ -2507,33 +2482,18 @@
       <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="42">
+      <c r="C22" s="27"/>
+      <c r="D22" s="41">
         <v>45076</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="41">
         <v>45078</v>
       </c>
-      <c r="CA22" s="55"/>
-      <c r="CB22" s="56"/>
-      <c r="CC22" s="65"/>
-      <c r="CD22" s="65"/>
-      <c r="CE22" s="65"/>
-      <c r="CF22" s="65"/>
-      <c r="CG22" s="65"/>
-      <c r="CH22" s="66"/>
-      <c r="CI22" s="66"/>
-      <c r="CJ22" s="66"/>
-      <c r="CK22" s="66"/>
-      <c r="CL22" s="65"/>
-      <c r="CM22" s="65"/>
-      <c r="CN22" s="65"/>
-      <c r="CO22" s="65"/>
-      <c r="CP22" s="65"/>
-      <c r="CQ22" s="65"/>
-      <c r="CR22" s="55"/>
-      <c r="CS22" s="63"/>
-      <c r="CT22" s="56"/>
+      <c r="CA22" s="54"/>
+      <c r="CB22" s="55"/>
+      <c r="CR22" s="54"/>
+      <c r="CS22" s="60"/>
+      <c r="CT22" s="55"/>
     </row>
     <row r="23" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
@@ -2680,15 +2640,18 @@
       <c r="B25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="CK25" s="66"/>
-      <c r="CL25" s="66"/>
-      <c r="CM25" s="66"/>
-      <c r="CN25" s="66"/>
-      <c r="CU25" s="57"/>
-      <c r="CV25" s="58"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="41">
+        <v>45079</v>
+      </c>
+      <c r="E25" s="41">
+        <v>45083</v>
+      </c>
+      <c r="CU25" s="56"/>
+      <c r="CV25" s="63"/>
+      <c r="CW25" s="63"/>
+      <c r="CX25" s="63"/>
+      <c r="CY25" s="57"/>
     </row>
     <row r="26" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -2835,14 +2798,12 @@
       <c r="B28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="CO28" s="66"/>
-      <c r="CP28" s="66"/>
-      <c r="CQ28" s="66"/>
-      <c r="CW28" s="59"/>
-      <c r="CX28" s="60"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="CW28" s="64"/>
+      <c r="CX28" s="64"/>
+      <c r="CY28" s="65"/>
     </row>
     <row r="29" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
@@ -2989,7 +2950,7 @@
       <c r="B31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
@@ -3000,7 +2961,7 @@
       <c r="B32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
@@ -3011,7 +2972,7 @@
       <c r="B33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="27"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
@@ -3023,135 +2984,135 @@
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A35" s="45"/>
-      <c r="B35" s="46" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="47"/>
-      <c r="W35" s="47"/>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="47"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="47"/>
-      <c r="AB35" s="47"/>
-      <c r="AC35" s="47"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="47"/>
-      <c r="AF35" s="47"/>
-      <c r="AG35" s="47"/>
-      <c r="AH35" s="47"/>
-      <c r="AI35" s="47"/>
-      <c r="AJ35" s="47"/>
-      <c r="AK35" s="47"/>
-      <c r="AL35" s="47"/>
-      <c r="AM35" s="47"/>
-      <c r="AN35" s="47"/>
-      <c r="AO35" s="47"/>
-      <c r="AP35" s="47"/>
-      <c r="AQ35" s="47"/>
-      <c r="AR35" s="47"/>
-      <c r="AS35" s="47"/>
-      <c r="AT35" s="47"/>
-      <c r="AU35" s="47"/>
-      <c r="AV35" s="47"/>
-      <c r="AW35" s="47"/>
-      <c r="AX35" s="47"/>
-      <c r="AY35" s="47"/>
-      <c r="AZ35" s="47"/>
-      <c r="BA35" s="47"/>
-      <c r="BB35" s="47"/>
-      <c r="BC35" s="47"/>
-      <c r="BD35" s="47"/>
-      <c r="BE35" s="47"/>
-      <c r="BF35" s="47"/>
-      <c r="BG35" s="47"/>
-      <c r="BH35" s="47"/>
-      <c r="BI35" s="47"/>
-      <c r="BJ35" s="47"/>
-      <c r="BK35" s="47"/>
-      <c r="BL35" s="47"/>
-      <c r="BM35" s="47"/>
-      <c r="BN35" s="47"/>
-      <c r="BO35" s="47"/>
-      <c r="BP35" s="47"/>
-      <c r="BQ35" s="47"/>
-      <c r="BR35" s="47"/>
-      <c r="BS35" s="47"/>
-      <c r="BT35" s="47"/>
-      <c r="BU35" s="47"/>
-      <c r="BV35" s="47"/>
-      <c r="BW35" s="47"/>
-      <c r="BX35" s="47"/>
-      <c r="BY35" s="47"/>
-      <c r="BZ35" s="47"/>
-      <c r="CA35" s="47"/>
-      <c r="CB35" s="47"/>
-      <c r="CC35" s="47"/>
-      <c r="CD35" s="47"/>
-      <c r="CE35" s="47"/>
-      <c r="CF35" s="47"/>
-      <c r="CG35" s="47"/>
-      <c r="CH35" s="47"/>
-      <c r="CI35" s="47"/>
-      <c r="CJ35" s="47"/>
-      <c r="CK35" s="47"/>
-      <c r="CL35" s="47"/>
-      <c r="CM35" s="47"/>
-      <c r="CN35" s="47"/>
-      <c r="CO35" s="47"/>
-      <c r="CP35" s="47"/>
-      <c r="CQ35" s="47"/>
-      <c r="CR35" s="47"/>
-      <c r="CS35" s="47"/>
-      <c r="CT35" s="47"/>
-      <c r="CU35" s="47"/>
-      <c r="CV35" s="47"/>
-      <c r="CW35" s="47"/>
-      <c r="CX35" s="47"/>
-      <c r="CY35" s="47"/>
-      <c r="CZ35" s="47"/>
-      <c r="DA35" s="47"/>
-      <c r="DB35" s="47"/>
-      <c r="DC35" s="47"/>
-      <c r="DD35" s="47"/>
-      <c r="DE35" s="47"/>
-      <c r="DF35" s="47"/>
-      <c r="DG35" s="47"/>
-      <c r="DH35" s="47"/>
-      <c r="DI35" s="47"/>
-      <c r="DJ35" s="47"/>
-      <c r="DK35" s="47"/>
-      <c r="DL35" s="47"/>
-      <c r="DM35" s="47"/>
-      <c r="DN35" s="47"/>
-      <c r="DO35" s="47"/>
-      <c r="DP35" s="47"/>
-      <c r="DQ35" s="47"/>
-      <c r="DR35" s="47"/>
-      <c r="DS35" s="47"/>
-      <c r="DT35" s="47"/>
-      <c r="DU35" s="47"/>
-      <c r="DV35" s="47"/>
-      <c r="DW35" s="47"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46"/>
+      <c r="AA35" s="46"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="46"/>
+      <c r="AE35" s="46"/>
+      <c r="AF35" s="46"/>
+      <c r="AG35" s="46"/>
+      <c r="AH35" s="46"/>
+      <c r="AI35" s="46"/>
+      <c r="AJ35" s="46"/>
+      <c r="AK35" s="46"/>
+      <c r="AL35" s="46"/>
+      <c r="AM35" s="46"/>
+      <c r="AN35" s="46"/>
+      <c r="AO35" s="46"/>
+      <c r="AP35" s="46"/>
+      <c r="AQ35" s="46"/>
+      <c r="AR35" s="46"/>
+      <c r="AS35" s="46"/>
+      <c r="AT35" s="46"/>
+      <c r="AU35" s="46"/>
+      <c r="AV35" s="46"/>
+      <c r="AW35" s="46"/>
+      <c r="AX35" s="46"/>
+      <c r="AY35" s="46"/>
+      <c r="AZ35" s="46"/>
+      <c r="BA35" s="46"/>
+      <c r="BB35" s="46"/>
+      <c r="BC35" s="46"/>
+      <c r="BD35" s="46"/>
+      <c r="BE35" s="46"/>
+      <c r="BF35" s="46"/>
+      <c r="BG35" s="46"/>
+      <c r="BH35" s="46"/>
+      <c r="BI35" s="46"/>
+      <c r="BJ35" s="46"/>
+      <c r="BK35" s="46"/>
+      <c r="BL35" s="46"/>
+      <c r="BM35" s="46"/>
+      <c r="BN35" s="46"/>
+      <c r="BO35" s="46"/>
+      <c r="BP35" s="46"/>
+      <c r="BQ35" s="46"/>
+      <c r="BR35" s="46"/>
+      <c r="BS35" s="46"/>
+      <c r="BT35" s="46"/>
+      <c r="BU35" s="46"/>
+      <c r="BV35" s="46"/>
+      <c r="BW35" s="46"/>
+      <c r="BX35" s="46"/>
+      <c r="BY35" s="46"/>
+      <c r="BZ35" s="46"/>
+      <c r="CA35" s="46"/>
+      <c r="CB35" s="46"/>
+      <c r="CC35" s="46"/>
+      <c r="CD35" s="46"/>
+      <c r="CE35" s="46"/>
+      <c r="CF35" s="46"/>
+      <c r="CG35" s="46"/>
+      <c r="CH35" s="46"/>
+      <c r="CI35" s="46"/>
+      <c r="CJ35" s="46"/>
+      <c r="CK35" s="46"/>
+      <c r="CL35" s="46"/>
+      <c r="CM35" s="46"/>
+      <c r="CN35" s="46"/>
+      <c r="CO35" s="46"/>
+      <c r="CP35" s="46"/>
+      <c r="CQ35" s="46"/>
+      <c r="CR35" s="46"/>
+      <c r="CS35" s="46"/>
+      <c r="CT35" s="46"/>
+      <c r="CU35" s="46"/>
+      <c r="CV35" s="46"/>
+      <c r="CW35" s="46"/>
+      <c r="CX35" s="46"/>
+      <c r="CY35" s="46"/>
+      <c r="CZ35" s="46"/>
+      <c r="DA35" s="46"/>
+      <c r="DB35" s="46"/>
+      <c r="DC35" s="46"/>
+      <c r="DD35" s="46"/>
+      <c r="DE35" s="46"/>
+      <c r="DF35" s="46"/>
+      <c r="DG35" s="46"/>
+      <c r="DH35" s="46"/>
+      <c r="DI35" s="46"/>
+      <c r="DJ35" s="46"/>
+      <c r="DK35" s="46"/>
+      <c r="DL35" s="46"/>
+      <c r="DM35" s="46"/>
+      <c r="DN35" s="46"/>
+      <c r="DO35" s="46"/>
+      <c r="DP35" s="46"/>
+      <c r="DQ35" s="46"/>
+      <c r="DR35" s="46"/>
+      <c r="DS35" s="46"/>
+      <c r="DT35" s="46"/>
+      <c r="DU35" s="46"/>
+      <c r="DV35" s="46"/>
+      <c r="DW35" s="46"/>
     </row>
     <row r="36" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -3160,41 +3121,41 @@
       <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="48"/>
+      <c r="C36" s="47"/>
       <c r="D36" t="s">
         <v>45</v>
       </c>
       <c r="E36" t="s">
         <v>45</v>
       </c>
-      <c r="K36" s="32"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="34"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="33"/>
-      <c r="AJ36" s="33"/>
-      <c r="AK36" s="33"/>
-      <c r="AL36" s="33"/>
-      <c r="AM36" s="34"/>
-      <c r="AO36" s="32"/>
-      <c r="AP36" s="33"/>
-      <c r="AQ36" s="33"/>
-      <c r="AR36" s="33"/>
-      <c r="AS36" s="33"/>
-      <c r="AT36" s="33"/>
-      <c r="AU36" s="33"/>
-      <c r="AV36" s="33"/>
-      <c r="AW36" s="34"/>
-      <c r="BZ36" s="61"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="33"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="32"/>
+      <c r="AI36" s="32"/>
+      <c r="AJ36" s="32"/>
+      <c r="AK36" s="32"/>
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="33"/>
+      <c r="AO36" s="31"/>
+      <c r="AP36" s="32"/>
+      <c r="AQ36" s="32"/>
+      <c r="AR36" s="32"/>
+      <c r="AS36" s="32"/>
+      <c r="AT36" s="32"/>
+      <c r="AU36" s="32"/>
+      <c r="AV36" s="32"/>
+      <c r="AW36" s="33"/>
+      <c r="BZ36" s="58"/>
     </row>
     <row r="37" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>

--- a/Gantt Charts/Gantt Chart Updated.xlsx
+++ b/Gantt Charts/Gantt Chart Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T4YY4\Documents\GitHub\Individual Project\individualProject\Gantt Charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28175253-9807-49E1-9DA3-CC48C1E8EEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE57C4F-DE36-4C70-A4CA-83C4A853B3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="180" windowWidth="20410" windowHeight="20480" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{86D6CAE1-6D93-47A6-A03C-9E8F185825C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="52">
   <si>
     <t>Individual Project</t>
   </si>
@@ -188,20 +188,17 @@
     <t>June</t>
   </si>
   <si>
-    <t xml:space="preserve">Meeting </t>
-  </si>
-  <si>
     <t>Other Coursework</t>
   </si>
   <si>
-    <t>Final</t>
+    <t>NOT COMPLETED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,8 +261,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,12 +322,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -488,7 +487,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,7 +499,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -524,12 +521,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -847,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9F7A41-D1C8-40CA-B4D4-A4E7F54E7CAD}">
   <dimension ref="A1:DY56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,20 +857,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:129" ht="31" x14ac:dyDescent="0.7">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="AW1" s="39"/>
-      <c r="CB1" s="39"/>
-      <c r="CN1" s="39"/>
-      <c r="CY1" s="39"/>
-      <c r="DB1" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="DF1" s="39" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="CB1" s="38"/>
+      <c r="CN1" s="38"/>
+      <c r="CY1" s="38"/>
+      <c r="DB1" s="38"/>
+      <c r="DF1" s="38"/>
     </row>
     <row r="2" spans="1:129" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="1"/>
@@ -891,9 +882,8 @@
       <c r="CT2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CY2" s="66"/>
-      <c r="DB2" s="43"/>
-      <c r="DF2" s="36"/>
+      <c r="DB2" s="62"/>
+      <c r="DF2" s="62"/>
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.35">
       <c r="F3">
@@ -1211,72 +1201,21 @@
       <c r="DF3">
         <v>13</v>
       </c>
-      <c r="DG3">
-        <v>14</v>
-      </c>
-      <c r="DH3">
-        <v>15</v>
-      </c>
-      <c r="DI3">
-        <v>16</v>
-      </c>
-      <c r="DJ3">
-        <v>17</v>
-      </c>
-      <c r="DK3">
-        <v>18</v>
-      </c>
-      <c r="DL3">
-        <v>19</v>
-      </c>
-      <c r="DM3">
-        <v>20</v>
-      </c>
-      <c r="DN3">
-        <v>21</v>
-      </c>
-      <c r="DO3">
-        <v>22</v>
-      </c>
-      <c r="DP3">
-        <v>23</v>
-      </c>
-      <c r="DQ3">
-        <v>24</v>
-      </c>
-      <c r="DR3">
-        <v>25</v>
-      </c>
-      <c r="DS3">
-        <v>26</v>
-      </c>
-      <c r="DT3">
-        <v>27</v>
-      </c>
-      <c r="DU3">
-        <v>28</v>
-      </c>
-      <c r="DV3">
-        <v>29</v>
-      </c>
-      <c r="DW3">
-        <v>30</v>
-      </c>
     </row>
     <row r="4" spans="1:129" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1594,57 +1533,23 @@
       <c r="DF4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="DG4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="DH4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="DI4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="DJ4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="DK4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="DL4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="DM4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="DN4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="DO4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="DP4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="DQ4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="DR4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="DS4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="DT4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="DU4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="DV4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="DW4" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="DG4" s="2"/>
+      <c r="DH4" s="2"/>
+      <c r="DI4" s="2"/>
+      <c r="DJ4" s="2"/>
+      <c r="DK4" s="2"/>
+      <c r="DL4" s="2"/>
+      <c r="DM4" s="2"/>
+      <c r="DN4" s="2"/>
+      <c r="DO4" s="2"/>
+      <c r="DP4" s="2"/>
+      <c r="DQ4" s="2"/>
+      <c r="DR4" s="2"/>
+      <c r="DS4" s="2"/>
+      <c r="DT4" s="2"/>
+      <c r="DU4" s="2"/>
+      <c r="DV4" s="2"/>
+      <c r="DW4" s="2"/>
       <c r="DX4" s="2"/>
       <c r="DY4" s="2"/>
     </row>
@@ -1764,7 +1669,7 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="38"/>
+      <c r="AN6" s="37"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
@@ -1791,27 +1696,27 @@
       <c r="BL6" s="2"/>
       <c r="BM6" s="28"/>
       <c r="BN6" s="29"/>
-      <c r="BR6" s="48"/>
-      <c r="BS6" s="49"/>
-      <c r="BT6" s="49"/>
-      <c r="BU6" s="49"/>
-      <c r="BV6" s="50"/>
-      <c r="CA6" s="48"/>
-      <c r="CB6" s="50"/>
-      <c r="CH6" s="48"/>
-      <c r="CI6" s="49"/>
-      <c r="CJ6" s="50"/>
-      <c r="CO6" s="48"/>
-      <c r="CP6" s="50"/>
-      <c r="CR6" s="48"/>
-      <c r="CS6" s="50"/>
-      <c r="CZ6" s="48"/>
-      <c r="DA6" s="49"/>
-      <c r="DB6" s="49"/>
-      <c r="DC6" s="49"/>
-      <c r="DD6" s="49"/>
-      <c r="DE6" s="49"/>
-      <c r="DF6" s="50"/>
+      <c r="BR6" s="46"/>
+      <c r="BS6" s="47"/>
+      <c r="BT6" s="47"/>
+      <c r="BU6" s="47"/>
+      <c r="BV6" s="48"/>
+      <c r="CA6" s="46"/>
+      <c r="CB6" s="48"/>
+      <c r="CH6" s="46"/>
+      <c r="CI6" s="47"/>
+      <c r="CJ6" s="48"/>
+      <c r="CO6" s="46"/>
+      <c r="CP6" s="48"/>
+      <c r="CR6" s="46"/>
+      <c r="CS6" s="48"/>
+      <c r="CZ6" s="46"/>
+      <c r="DA6" s="47"/>
+      <c r="DB6" s="47"/>
+      <c r="DC6" s="47"/>
+      <c r="DD6" s="47"/>
+      <c r="DE6" s="47"/>
+      <c r="DF6" s="48"/>
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.35">
       <c r="C7" s="6"/>
@@ -1990,23 +1895,23 @@
       <c r="DD8" s="11"/>
       <c r="DE8" s="11"/>
       <c r="DF8" s="11"/>
-      <c r="DG8" s="11"/>
-      <c r="DH8" s="11"/>
-      <c r="DI8" s="11"/>
-      <c r="DJ8" s="11"/>
-      <c r="DK8" s="11"/>
-      <c r="DL8" s="11"/>
-      <c r="DM8" s="11"/>
-      <c r="DN8" s="11"/>
-      <c r="DO8" s="11"/>
-      <c r="DP8" s="11"/>
-      <c r="DQ8" s="11"/>
-      <c r="DR8" s="11"/>
-      <c r="DS8" s="11"/>
-      <c r="DT8" s="11"/>
-      <c r="DU8" s="11"/>
-      <c r="DV8" s="11"/>
-      <c r="DW8" s="11"/>
+      <c r="DG8" s="62"/>
+      <c r="DH8" s="62"/>
+      <c r="DI8" s="62"/>
+      <c r="DJ8" s="62"/>
+      <c r="DK8" s="62"/>
+      <c r="DL8" s="62"/>
+      <c r="DM8" s="62"/>
+      <c r="DN8" s="62"/>
+      <c r="DO8" s="62"/>
+      <c r="DP8" s="62"/>
+      <c r="DQ8" s="62"/>
+      <c r="DR8" s="62"/>
+      <c r="DS8" s="62"/>
+      <c r="DT8" s="62"/>
+      <c r="DU8" s="62"/>
+      <c r="DV8" s="62"/>
+      <c r="DW8" s="62"/>
     </row>
     <row r="9" spans="1:129" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
@@ -2016,22 +1921,39 @@
         <v>14</v>
       </c>
       <c r="C9" s="27"/>
-      <c r="D9" s="41">
+      <c r="D9" s="40">
         <v>45038</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="40">
         <v>45051</v>
       </c>
       <c r="BF9" s="34"/>
-      <c r="BJ9" s="42"/>
+      <c r="BJ9" s="41"/>
       <c r="BK9" s="9"/>
       <c r="BL9" s="9"/>
       <c r="BM9" s="9"/>
       <c r="BN9" s="9"/>
       <c r="BO9" s="9"/>
       <c r="BP9" s="10"/>
-      <c r="BR9" s="42"/>
+      <c r="BR9" s="41"/>
       <c r="BS9" s="10"/>
+      <c r="DG9" s="62"/>
+      <c r="DH9" s="62"/>
+      <c r="DI9" s="62"/>
+      <c r="DJ9" s="62"/>
+      <c r="DK9" s="62"/>
+      <c r="DL9" s="62"/>
+      <c r="DM9" s="62"/>
+      <c r="DN9" s="62"/>
+      <c r="DO9" s="62"/>
+      <c r="DP9" s="62"/>
+      <c r="DQ9" s="62"/>
+      <c r="DR9" s="62"/>
+      <c r="DS9" s="62"/>
+      <c r="DT9" s="62"/>
+      <c r="DU9" s="62"/>
+      <c r="DV9" s="62"/>
+      <c r="DW9" s="62"/>
     </row>
     <row r="10" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
@@ -2041,14 +1963,14 @@
         <v>16</v>
       </c>
       <c r="C10" s="27"/>
-      <c r="D10" s="41">
+      <c r="D10" s="40">
         <v>45020</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="40">
         <v>45037</v>
       </c>
       <c r="AN10" s="34"/>
-      <c r="AX10" s="42"/>
+      <c r="AX10" s="41"/>
       <c r="AY10" s="9"/>
       <c r="AZ10" s="9"/>
       <c r="BA10" s="9"/>
@@ -2056,6 +1978,23 @@
       <c r="BC10" s="9"/>
       <c r="BD10" s="9"/>
       <c r="BE10" s="10"/>
+      <c r="DG10" s="62"/>
+      <c r="DH10" s="62"/>
+      <c r="DI10" s="62"/>
+      <c r="DJ10" s="62"/>
+      <c r="DK10" s="62"/>
+      <c r="DL10" s="62"/>
+      <c r="DM10" s="62"/>
+      <c r="DN10" s="62"/>
+      <c r="DO10" s="62"/>
+      <c r="DP10" s="62"/>
+      <c r="DQ10" s="62"/>
+      <c r="DR10" s="62"/>
+      <c r="DS10" s="62"/>
+      <c r="DT10" s="62"/>
+      <c r="DU10" s="62"/>
+      <c r="DV10" s="62"/>
+      <c r="DW10" s="62"/>
     </row>
     <row r="11" spans="1:129" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -2065,15 +2004,32 @@
         <v>18</v>
       </c>
       <c r="C11" s="27"/>
-      <c r="D11" s="41">
+      <c r="D11" s="40">
         <v>45006</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="40">
         <v>45008</v>
       </c>
       <c r="Z11" s="35"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="10"/>
+      <c r="DG11" s="62"/>
+      <c r="DH11" s="62"/>
+      <c r="DI11" s="62"/>
+      <c r="DJ11" s="62"/>
+      <c r="DK11" s="62"/>
+      <c r="DL11" s="62"/>
+      <c r="DM11" s="62"/>
+      <c r="DN11" s="62"/>
+      <c r="DO11" s="62"/>
+      <c r="DP11" s="62"/>
+      <c r="DQ11" s="62"/>
+      <c r="DR11" s="62"/>
+      <c r="DS11" s="62"/>
+      <c r="DT11" s="62"/>
+      <c r="DU11" s="62"/>
+      <c r="DV11" s="62"/>
+      <c r="DW11" s="62"/>
     </row>
     <row r="12" spans="1:129" ht="44" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
@@ -2083,20 +2039,37 @@
         <v>19</v>
       </c>
       <c r="C12" s="27"/>
-      <c r="D12" s="41">
+      <c r="D12" s="40">
         <v>45006</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="40">
         <v>45051</v>
       </c>
       <c r="Z12" s="34"/>
       <c r="AN12" s="34"/>
-      <c r="BE12" s="42"/>
+      <c r="BE12" s="41"/>
       <c r="BF12" s="10"/>
-      <c r="BR12" s="42"/>
+      <c r="BR12" s="41"/>
       <c r="BS12" s="9"/>
       <c r="BT12" s="9"/>
       <c r="BU12" s="10"/>
+      <c r="DG12" s="62"/>
+      <c r="DH12" s="62"/>
+      <c r="DI12" s="62"/>
+      <c r="DJ12" s="62"/>
+      <c r="DK12" s="62"/>
+      <c r="DL12" s="62"/>
+      <c r="DM12" s="62"/>
+      <c r="DN12" s="62"/>
+      <c r="DO12" s="62"/>
+      <c r="DP12" s="62"/>
+      <c r="DQ12" s="62"/>
+      <c r="DR12" s="62"/>
+      <c r="DS12" s="62"/>
+      <c r="DT12" s="62"/>
+      <c r="DU12" s="62"/>
+      <c r="DV12" s="62"/>
+      <c r="DW12" s="62"/>
     </row>
     <row r="13" spans="1:129" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
@@ -2104,6 +2077,23 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
+      <c r="DG13" s="62"/>
+      <c r="DH13" s="62"/>
+      <c r="DI13" s="62"/>
+      <c r="DJ13" s="62"/>
+      <c r="DK13" s="62"/>
+      <c r="DL13" s="62"/>
+      <c r="DM13" s="62"/>
+      <c r="DN13" s="62"/>
+      <c r="DO13" s="62"/>
+      <c r="DP13" s="62"/>
+      <c r="DQ13" s="62"/>
+      <c r="DR13" s="62"/>
+      <c r="DS13" s="62"/>
+      <c r="DT13" s="62"/>
+      <c r="DU13" s="62"/>
+      <c r="DV13" s="62"/>
+      <c r="DW13" s="62"/>
     </row>
     <row r="14" spans="1:129" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
@@ -2218,23 +2208,23 @@
       <c r="DD14" s="8"/>
       <c r="DE14" s="8"/>
       <c r="DF14" s="8"/>
-      <c r="DG14" s="8"/>
-      <c r="DH14" s="8"/>
-      <c r="DI14" s="8"/>
-      <c r="DJ14" s="8"/>
-      <c r="DK14" s="8"/>
-      <c r="DL14" s="8"/>
-      <c r="DM14" s="8"/>
-      <c r="DN14" s="8"/>
-      <c r="DO14" s="8"/>
-      <c r="DP14" s="8"/>
-      <c r="DQ14" s="8"/>
-      <c r="DR14" s="8"/>
-      <c r="DS14" s="8"/>
-      <c r="DT14" s="8"/>
-      <c r="DU14" s="8"/>
-      <c r="DV14" s="8"/>
-      <c r="DW14" s="8"/>
+      <c r="DG14" s="62"/>
+      <c r="DH14" s="62"/>
+      <c r="DI14" s="62"/>
+      <c r="DJ14" s="62"/>
+      <c r="DK14" s="62"/>
+      <c r="DL14" s="62"/>
+      <c r="DM14" s="62"/>
+      <c r="DN14" s="62"/>
+      <c r="DO14" s="62"/>
+      <c r="DP14" s="62"/>
+      <c r="DQ14" s="62"/>
+      <c r="DR14" s="62"/>
+      <c r="DS14" s="62"/>
+      <c r="DT14" s="62"/>
+      <c r="DU14" s="62"/>
+      <c r="DV14" s="62"/>
+      <c r="DW14" s="62"/>
     </row>
     <row r="15" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -2244,14 +2234,31 @@
         <v>21</v>
       </c>
       <c r="C15" s="27"/>
-      <c r="D15" s="41">
+      <c r="D15" s="40">
         <v>45053</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="40">
         <v>45054</v>
       </c>
-      <c r="BU15" s="51"/>
-      <c r="BV15" s="53"/>
+      <c r="BU15" s="49"/>
+      <c r="BV15" s="51"/>
+      <c r="DG15" s="62"/>
+      <c r="DH15" s="62"/>
+      <c r="DI15" s="62"/>
+      <c r="DJ15" s="62"/>
+      <c r="DK15" s="62"/>
+      <c r="DL15" s="62"/>
+      <c r="DM15" s="62"/>
+      <c r="DN15" s="62"/>
+      <c r="DO15" s="62"/>
+      <c r="DP15" s="62"/>
+      <c r="DQ15" s="62"/>
+      <c r="DR15" s="62"/>
+      <c r="DS15" s="62"/>
+      <c r="DT15" s="62"/>
+      <c r="DU15" s="62"/>
+      <c r="DV15" s="62"/>
+      <c r="DW15" s="62"/>
     </row>
     <row r="16" spans="1:129" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -2261,15 +2268,32 @@
         <v>23</v>
       </c>
       <c r="C16" s="27"/>
-      <c r="D16" s="41">
+      <c r="D16" s="40">
         <v>45055</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="40">
         <v>45057</v>
       </c>
-      <c r="BW16" s="51"/>
-      <c r="BX16" s="52"/>
-      <c r="BY16" s="61"/>
+      <c r="BW16" s="49"/>
+      <c r="BX16" s="50"/>
+      <c r="BY16" s="59"/>
+      <c r="DG16" s="62"/>
+      <c r="DH16" s="62"/>
+      <c r="DI16" s="62"/>
+      <c r="DJ16" s="62"/>
+      <c r="DK16" s="62"/>
+      <c r="DL16" s="62"/>
+      <c r="DM16" s="62"/>
+      <c r="DN16" s="62"/>
+      <c r="DO16" s="62"/>
+      <c r="DP16" s="62"/>
+      <c r="DQ16" s="62"/>
+      <c r="DR16" s="62"/>
+      <c r="DS16" s="62"/>
+      <c r="DT16" s="62"/>
+      <c r="DU16" s="62"/>
+      <c r="DV16" s="62"/>
+      <c r="DW16" s="62"/>
     </row>
     <row r="17" spans="1:127" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -2279,14 +2303,31 @@
         <v>19</v>
       </c>
       <c r="C17" s="27"/>
-      <c r="D17" s="41">
+      <c r="D17" s="40">
         <v>45054</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="40">
         <v>45057</v>
       </c>
-      <c r="BV17" s="59"/>
-      <c r="BY17" s="59"/>
+      <c r="BV17" s="57"/>
+      <c r="BY17" s="57"/>
+      <c r="DG17" s="62"/>
+      <c r="DH17" s="62"/>
+      <c r="DI17" s="62"/>
+      <c r="DJ17" s="62"/>
+      <c r="DK17" s="62"/>
+      <c r="DL17" s="62"/>
+      <c r="DM17" s="62"/>
+      <c r="DN17" s="62"/>
+      <c r="DO17" s="62"/>
+      <c r="DP17" s="62"/>
+      <c r="DQ17" s="62"/>
+      <c r="DR17" s="62"/>
+      <c r="DS17" s="62"/>
+      <c r="DT17" s="62"/>
+      <c r="DU17" s="62"/>
+      <c r="DV17" s="62"/>
+      <c r="DW17" s="62"/>
     </row>
     <row r="18" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -2294,6 +2335,23 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
+      <c r="DG18" s="62"/>
+      <c r="DH18" s="62"/>
+      <c r="DI18" s="62"/>
+      <c r="DJ18" s="62"/>
+      <c r="DK18" s="62"/>
+      <c r="DL18" s="62"/>
+      <c r="DM18" s="62"/>
+      <c r="DN18" s="62"/>
+      <c r="DO18" s="62"/>
+      <c r="DP18" s="62"/>
+      <c r="DQ18" s="62"/>
+      <c r="DR18" s="62"/>
+      <c r="DS18" s="62"/>
+      <c r="DT18" s="62"/>
+      <c r="DU18" s="62"/>
+      <c r="DV18" s="62"/>
+      <c r="DW18" s="62"/>
     </row>
     <row r="19" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
@@ -2408,23 +2466,23 @@
       <c r="DD19" s="17"/>
       <c r="DE19" s="17"/>
       <c r="DF19" s="17"/>
-      <c r="DG19" s="17"/>
-      <c r="DH19" s="17"/>
-      <c r="DI19" s="17"/>
-      <c r="DJ19" s="17"/>
-      <c r="DK19" s="17"/>
-      <c r="DL19" s="17"/>
-      <c r="DM19" s="17"/>
-      <c r="DN19" s="17"/>
-      <c r="DO19" s="17"/>
-      <c r="DP19" s="17"/>
-      <c r="DQ19" s="17"/>
-      <c r="DR19" s="17"/>
-      <c r="DS19" s="17"/>
-      <c r="DT19" s="17"/>
-      <c r="DU19" s="17"/>
-      <c r="DV19" s="17"/>
-      <c r="DW19" s="17"/>
+      <c r="DG19" s="62"/>
+      <c r="DH19" s="62"/>
+      <c r="DI19" s="62"/>
+      <c r="DJ19" s="62"/>
+      <c r="DK19" s="62"/>
+      <c r="DL19" s="62"/>
+      <c r="DM19" s="62"/>
+      <c r="DN19" s="62"/>
+      <c r="DO19" s="62"/>
+      <c r="DP19" s="62"/>
+      <c r="DQ19" s="62"/>
+      <c r="DR19" s="62"/>
+      <c r="DS19" s="62"/>
+      <c r="DT19" s="62"/>
+      <c r="DU19" s="62"/>
+      <c r="DV19" s="62"/>
+      <c r="DW19" s="62"/>
     </row>
     <row r="20" spans="1:127" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
@@ -2434,28 +2492,45 @@
         <v>28</v>
       </c>
       <c r="C20" s="27"/>
-      <c r="D20" s="41">
+      <c r="D20" s="40">
         <v>45059</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="40">
         <v>45074</v>
       </c>
-      <c r="CA20" s="54"/>
-      <c r="CB20" s="60"/>
-      <c r="CC20" s="60"/>
-      <c r="CD20" s="60"/>
-      <c r="CE20" s="60"/>
-      <c r="CF20" s="60"/>
-      <c r="CG20" s="60"/>
-      <c r="CH20" s="60"/>
-      <c r="CI20" s="60"/>
-      <c r="CJ20" s="60"/>
-      <c r="CK20" s="60"/>
-      <c r="CL20" s="60"/>
-      <c r="CM20" s="60"/>
-      <c r="CN20" s="60"/>
-      <c r="CO20" s="60"/>
-      <c r="CP20" s="55"/>
+      <c r="CA20" s="52"/>
+      <c r="CB20" s="58"/>
+      <c r="CC20" s="58"/>
+      <c r="CD20" s="58"/>
+      <c r="CE20" s="58"/>
+      <c r="CF20" s="58"/>
+      <c r="CG20" s="58"/>
+      <c r="CH20" s="58"/>
+      <c r="CI20" s="58"/>
+      <c r="CJ20" s="58"/>
+      <c r="CK20" s="58"/>
+      <c r="CL20" s="58"/>
+      <c r="CM20" s="58"/>
+      <c r="CN20" s="58"/>
+      <c r="CO20" s="58"/>
+      <c r="CP20" s="53"/>
+      <c r="DG20" s="62"/>
+      <c r="DH20" s="62"/>
+      <c r="DI20" s="62"/>
+      <c r="DJ20" s="62"/>
+      <c r="DK20" s="62"/>
+      <c r="DL20" s="62"/>
+      <c r="DM20" s="62"/>
+      <c r="DN20" s="62"/>
+      <c r="DO20" s="62"/>
+      <c r="DP20" s="62"/>
+      <c r="DQ20" s="62"/>
+      <c r="DR20" s="62"/>
+      <c r="DS20" s="62"/>
+      <c r="DT20" s="62"/>
+      <c r="DU20" s="62"/>
+      <c r="DV20" s="62"/>
+      <c r="DW20" s="62"/>
     </row>
     <row r="21" spans="1:127" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
@@ -2465,15 +2540,32 @@
         <v>30</v>
       </c>
       <c r="C21" s="27"/>
-      <c r="D21" s="41">
+      <c r="D21" s="40">
         <v>45075</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="40">
         <v>45077</v>
       </c>
-      <c r="CQ21" s="54"/>
-      <c r="CR21" s="60"/>
-      <c r="CS21" s="55"/>
+      <c r="CQ21" s="52"/>
+      <c r="CR21" s="58"/>
+      <c r="CS21" s="53"/>
+      <c r="DG21" s="62"/>
+      <c r="DH21" s="62"/>
+      <c r="DI21" s="62"/>
+      <c r="DJ21" s="62"/>
+      <c r="DK21" s="62"/>
+      <c r="DL21" s="62"/>
+      <c r="DM21" s="62"/>
+      <c r="DN21" s="62"/>
+      <c r="DO21" s="62"/>
+      <c r="DP21" s="62"/>
+      <c r="DQ21" s="62"/>
+      <c r="DR21" s="62"/>
+      <c r="DS21" s="62"/>
+      <c r="DT21" s="62"/>
+      <c r="DU21" s="62"/>
+      <c r="DV21" s="62"/>
+      <c r="DW21" s="62"/>
     </row>
     <row r="22" spans="1:127" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
@@ -2483,17 +2575,34 @@
         <v>19</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="41">
+      <c r="D22" s="40">
         <v>45076</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="40">
         <v>45078</v>
       </c>
-      <c r="CA22" s="54"/>
-      <c r="CB22" s="55"/>
-      <c r="CR22" s="54"/>
-      <c r="CS22" s="60"/>
-      <c r="CT22" s="55"/>
+      <c r="CA22" s="52"/>
+      <c r="CB22" s="53"/>
+      <c r="CR22" s="52"/>
+      <c r="CS22" s="58"/>
+      <c r="CT22" s="53"/>
+      <c r="DG22" s="62"/>
+      <c r="DH22" s="62"/>
+      <c r="DI22" s="62"/>
+      <c r="DJ22" s="62"/>
+      <c r="DK22" s="62"/>
+      <c r="DL22" s="62"/>
+      <c r="DM22" s="62"/>
+      <c r="DN22" s="62"/>
+      <c r="DO22" s="62"/>
+      <c r="DP22" s="62"/>
+      <c r="DQ22" s="62"/>
+      <c r="DR22" s="62"/>
+      <c r="DS22" s="62"/>
+      <c r="DT22" s="62"/>
+      <c r="DU22" s="62"/>
+      <c r="DV22" s="62"/>
+      <c r="DW22" s="62"/>
     </row>
     <row r="23" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
@@ -2501,6 +2610,23 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
+      <c r="DG23" s="62"/>
+      <c r="DH23" s="62"/>
+      <c r="DI23" s="62"/>
+      <c r="DJ23" s="62"/>
+      <c r="DK23" s="62"/>
+      <c r="DL23" s="62"/>
+      <c r="DM23" s="62"/>
+      <c r="DN23" s="62"/>
+      <c r="DO23" s="62"/>
+      <c r="DP23" s="62"/>
+      <c r="DQ23" s="62"/>
+      <c r="DR23" s="62"/>
+      <c r="DS23" s="62"/>
+      <c r="DT23" s="62"/>
+      <c r="DU23" s="62"/>
+      <c r="DV23" s="62"/>
+      <c r="DW23" s="62"/>
     </row>
     <row r="24" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
@@ -2615,23 +2741,23 @@
       <c r="DD24" s="20"/>
       <c r="DE24" s="20"/>
       <c r="DF24" s="20"/>
-      <c r="DG24" s="20"/>
-      <c r="DH24" s="20"/>
-      <c r="DI24" s="20"/>
-      <c r="DJ24" s="20"/>
-      <c r="DK24" s="20"/>
-      <c r="DL24" s="20"/>
-      <c r="DM24" s="20"/>
-      <c r="DN24" s="20"/>
-      <c r="DO24" s="20"/>
-      <c r="DP24" s="20"/>
-      <c r="DQ24" s="20"/>
-      <c r="DR24" s="20"/>
-      <c r="DS24" s="20"/>
-      <c r="DT24" s="20"/>
-      <c r="DU24" s="20"/>
-      <c r="DV24" s="20"/>
-      <c r="DW24" s="20"/>
+      <c r="DG24" s="62"/>
+      <c r="DH24" s="62"/>
+      <c r="DI24" s="62"/>
+      <c r="DJ24" s="62"/>
+      <c r="DK24" s="62"/>
+      <c r="DL24" s="62"/>
+      <c r="DM24" s="62"/>
+      <c r="DN24" s="62"/>
+      <c r="DO24" s="62"/>
+      <c r="DP24" s="62"/>
+      <c r="DQ24" s="62"/>
+      <c r="DR24" s="62"/>
+      <c r="DS24" s="62"/>
+      <c r="DT24" s="62"/>
+      <c r="DU24" s="62"/>
+      <c r="DV24" s="62"/>
+      <c r="DW24" s="62"/>
     </row>
     <row r="25" spans="1:127" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
@@ -2641,17 +2767,34 @@
         <v>35</v>
       </c>
       <c r="C25" s="27"/>
-      <c r="D25" s="41">
+      <c r="D25" s="40">
         <v>45079</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="40">
         <v>45083</v>
       </c>
-      <c r="CU25" s="56"/>
-      <c r="CV25" s="63"/>
-      <c r="CW25" s="63"/>
-      <c r="CX25" s="63"/>
-      <c r="CY25" s="57"/>
+      <c r="CU25" s="54"/>
+      <c r="CV25" s="60"/>
+      <c r="CW25" s="60"/>
+      <c r="CX25" s="60"/>
+      <c r="CY25" s="55"/>
+      <c r="DG25" s="62"/>
+      <c r="DH25" s="62"/>
+      <c r="DI25" s="62"/>
+      <c r="DJ25" s="62"/>
+      <c r="DK25" s="62"/>
+      <c r="DL25" s="62"/>
+      <c r="DM25" s="62"/>
+      <c r="DN25" s="62"/>
+      <c r="DO25" s="62"/>
+      <c r="DP25" s="62"/>
+      <c r="DQ25" s="62"/>
+      <c r="DR25" s="62"/>
+      <c r="DS25" s="62"/>
+      <c r="DT25" s="62"/>
+      <c r="DU25" s="62"/>
+      <c r="DV25" s="62"/>
+      <c r="DW25" s="62"/>
     </row>
     <row r="26" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -2659,6 +2802,23 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
+      <c r="DG26" s="62"/>
+      <c r="DH26" s="62"/>
+      <c r="DI26" s="62"/>
+      <c r="DJ26" s="62"/>
+      <c r="DK26" s="62"/>
+      <c r="DL26" s="62"/>
+      <c r="DM26" s="62"/>
+      <c r="DN26" s="62"/>
+      <c r="DO26" s="62"/>
+      <c r="DP26" s="62"/>
+      <c r="DQ26" s="62"/>
+      <c r="DR26" s="62"/>
+      <c r="DS26" s="62"/>
+      <c r="DT26" s="62"/>
+      <c r="DU26" s="62"/>
+      <c r="DV26" s="62"/>
+      <c r="DW26" s="62"/>
     </row>
     <row r="27" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A27" s="21"/>
@@ -2773,23 +2933,23 @@
       <c r="DD27" s="23"/>
       <c r="DE27" s="23"/>
       <c r="DF27" s="23"/>
-      <c r="DG27" s="23"/>
-      <c r="DH27" s="23"/>
-      <c r="DI27" s="23"/>
-      <c r="DJ27" s="23"/>
-      <c r="DK27" s="23"/>
-      <c r="DL27" s="23"/>
-      <c r="DM27" s="23"/>
-      <c r="DN27" s="23"/>
-      <c r="DO27" s="23"/>
-      <c r="DP27" s="23"/>
-      <c r="DQ27" s="23"/>
-      <c r="DR27" s="23"/>
-      <c r="DS27" s="23"/>
-      <c r="DT27" s="23"/>
-      <c r="DU27" s="23"/>
-      <c r="DV27" s="23"/>
-      <c r="DW27" s="23"/>
+      <c r="DG27" s="62"/>
+      <c r="DH27" s="62"/>
+      <c r="DI27" s="62"/>
+      <c r="DJ27" s="62"/>
+      <c r="DK27" s="62"/>
+      <c r="DL27" s="62"/>
+      <c r="DM27" s="62"/>
+      <c r="DN27" s="62"/>
+      <c r="DO27" s="62"/>
+      <c r="DP27" s="62"/>
+      <c r="DQ27" s="62"/>
+      <c r="DR27" s="62"/>
+      <c r="DS27" s="62"/>
+      <c r="DT27" s="62"/>
+      <c r="DU27" s="62"/>
+      <c r="DV27" s="62"/>
+      <c r="DW27" s="62"/>
     </row>
     <row r="28" spans="1:127" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
@@ -2798,12 +2958,32 @@
       <c r="B28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="CW28" s="64"/>
-      <c r="CX28" s="64"/>
-      <c r="CY28" s="65"/>
+      <c r="C28" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="DG28" s="62"/>
+      <c r="DH28" s="62"/>
+      <c r="DI28" s="62"/>
+      <c r="DJ28" s="62"/>
+      <c r="DK28" s="62"/>
+      <c r="DL28" s="62"/>
+      <c r="DM28" s="62"/>
+      <c r="DN28" s="62"/>
+      <c r="DO28" s="62"/>
+      <c r="DP28" s="62"/>
+      <c r="DQ28" s="62"/>
+      <c r="DR28" s="62"/>
+      <c r="DS28" s="62"/>
+      <c r="DT28" s="62"/>
+      <c r="DU28" s="62"/>
+      <c r="DV28" s="62"/>
+      <c r="DW28" s="62"/>
     </row>
     <row r="29" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
@@ -2811,6 +2991,23 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
+      <c r="DG29" s="62"/>
+      <c r="DH29" s="62"/>
+      <c r="DI29" s="62"/>
+      <c r="DJ29" s="62"/>
+      <c r="DK29" s="62"/>
+      <c r="DL29" s="62"/>
+      <c r="DM29" s="62"/>
+      <c r="DN29" s="62"/>
+      <c r="DO29" s="62"/>
+      <c r="DP29" s="62"/>
+      <c r="DQ29" s="62"/>
+      <c r="DR29" s="62"/>
+      <c r="DS29" s="62"/>
+      <c r="DT29" s="62"/>
+      <c r="DU29" s="62"/>
+      <c r="DV29" s="62"/>
+      <c r="DW29" s="62"/>
     </row>
     <row r="30" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A30" s="24"/>
@@ -2925,23 +3122,23 @@
       <c r="DD30" s="25"/>
       <c r="DE30" s="25"/>
       <c r="DF30" s="25"/>
-      <c r="DG30" s="25"/>
-      <c r="DH30" s="25"/>
-      <c r="DI30" s="25"/>
-      <c r="DJ30" s="25"/>
-      <c r="DK30" s="25"/>
-      <c r="DL30" s="25"/>
-      <c r="DM30" s="25"/>
-      <c r="DN30" s="25"/>
-      <c r="DO30" s="25"/>
-      <c r="DP30" s="25"/>
-      <c r="DQ30" s="25"/>
-      <c r="DR30" s="25"/>
-      <c r="DS30" s="25"/>
-      <c r="DT30" s="25"/>
-      <c r="DU30" s="25"/>
-      <c r="DV30" s="25"/>
-      <c r="DW30" s="25"/>
+      <c r="DG30" s="62"/>
+      <c r="DH30" s="62"/>
+      <c r="DI30" s="62"/>
+      <c r="DJ30" s="62"/>
+      <c r="DK30" s="62"/>
+      <c r="DL30" s="62"/>
+      <c r="DM30" s="62"/>
+      <c r="DN30" s="62"/>
+      <c r="DO30" s="62"/>
+      <c r="DP30" s="62"/>
+      <c r="DQ30" s="62"/>
+      <c r="DR30" s="62"/>
+      <c r="DS30" s="62"/>
+      <c r="DT30" s="62"/>
+      <c r="DU30" s="62"/>
+      <c r="DV30" s="62"/>
+      <c r="DW30" s="62"/>
     </row>
     <row r="31" spans="1:127" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
@@ -2950,9 +3147,32 @@
       <c r="B31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="C31" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="DG31" s="62"/>
+      <c r="DH31" s="62"/>
+      <c r="DI31" s="62"/>
+      <c r="DJ31" s="62"/>
+      <c r="DK31" s="62"/>
+      <c r="DL31" s="62"/>
+      <c r="DM31" s="62"/>
+      <c r="DN31" s="62"/>
+      <c r="DO31" s="62"/>
+      <c r="DP31" s="62"/>
+      <c r="DQ31" s="62"/>
+      <c r="DR31" s="62"/>
+      <c r="DS31" s="62"/>
+      <c r="DT31" s="62"/>
+      <c r="DU31" s="62"/>
+      <c r="DV31" s="62"/>
+      <c r="DW31" s="62"/>
     </row>
     <row r="32" spans="1:127" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
@@ -2961,9 +3181,32 @@
       <c r="B32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="C32" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="DG32" s="62"/>
+      <c r="DH32" s="62"/>
+      <c r="DI32" s="62"/>
+      <c r="DJ32" s="62"/>
+      <c r="DK32" s="62"/>
+      <c r="DL32" s="62"/>
+      <c r="DM32" s="62"/>
+      <c r="DN32" s="62"/>
+      <c r="DO32" s="62"/>
+      <c r="DP32" s="62"/>
+      <c r="DQ32" s="62"/>
+      <c r="DR32" s="62"/>
+      <c r="DS32" s="62"/>
+      <c r="DT32" s="62"/>
+      <c r="DU32" s="62"/>
+      <c r="DV32" s="62"/>
+      <c r="DW32" s="62"/>
     </row>
     <row r="33" spans="1:127" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
@@ -2972,9 +3215,32 @@
       <c r="B33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="C33" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="DG33" s="62"/>
+      <c r="DH33" s="62"/>
+      <c r="DI33" s="62"/>
+      <c r="DJ33" s="62"/>
+      <c r="DK33" s="62"/>
+      <c r="DL33" s="62"/>
+      <c r="DM33" s="62"/>
+      <c r="DN33" s="62"/>
+      <c r="DO33" s="62"/>
+      <c r="DP33" s="62"/>
+      <c r="DQ33" s="62"/>
+      <c r="DR33" s="62"/>
+      <c r="DS33" s="62"/>
+      <c r="DT33" s="62"/>
+      <c r="DU33" s="62"/>
+      <c r="DV33" s="62"/>
+      <c r="DW33" s="62"/>
     </row>
     <row r="34" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
@@ -2982,137 +3248,154 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
+      <c r="DG34" s="62"/>
+      <c r="DH34" s="62"/>
+      <c r="DI34" s="62"/>
+      <c r="DJ34" s="62"/>
+      <c r="DK34" s="62"/>
+      <c r="DL34" s="62"/>
+      <c r="DM34" s="62"/>
+      <c r="DN34" s="62"/>
+      <c r="DO34" s="62"/>
+      <c r="DP34" s="62"/>
+      <c r="DQ34" s="62"/>
+      <c r="DR34" s="62"/>
+      <c r="DS34" s="62"/>
+      <c r="DT34" s="62"/>
+      <c r="DU34" s="62"/>
+      <c r="DV34" s="62"/>
+      <c r="DW34" s="62"/>
     </row>
     <row r="35" spans="1:127" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
-      <c r="AE35" s="46"/>
-      <c r="AF35" s="46"/>
-      <c r="AG35" s="46"/>
-      <c r="AH35" s="46"/>
-      <c r="AI35" s="46"/>
-      <c r="AJ35" s="46"/>
-      <c r="AK35" s="46"/>
-      <c r="AL35" s="46"/>
-      <c r="AM35" s="46"/>
-      <c r="AN35" s="46"/>
-      <c r="AO35" s="46"/>
-      <c r="AP35" s="46"/>
-      <c r="AQ35" s="46"/>
-      <c r="AR35" s="46"/>
-      <c r="AS35" s="46"/>
-      <c r="AT35" s="46"/>
-      <c r="AU35" s="46"/>
-      <c r="AV35" s="46"/>
-      <c r="AW35" s="46"/>
-      <c r="AX35" s="46"/>
-      <c r="AY35" s="46"/>
-      <c r="AZ35" s="46"/>
-      <c r="BA35" s="46"/>
-      <c r="BB35" s="46"/>
-      <c r="BC35" s="46"/>
-      <c r="BD35" s="46"/>
-      <c r="BE35" s="46"/>
-      <c r="BF35" s="46"/>
-      <c r="BG35" s="46"/>
-      <c r="BH35" s="46"/>
-      <c r="BI35" s="46"/>
-      <c r="BJ35" s="46"/>
-      <c r="BK35" s="46"/>
-      <c r="BL35" s="46"/>
-      <c r="BM35" s="46"/>
-      <c r="BN35" s="46"/>
-      <c r="BO35" s="46"/>
-      <c r="BP35" s="46"/>
-      <c r="BQ35" s="46"/>
-      <c r="BR35" s="46"/>
-      <c r="BS35" s="46"/>
-      <c r="BT35" s="46"/>
-      <c r="BU35" s="46"/>
-      <c r="BV35" s="46"/>
-      <c r="BW35" s="46"/>
-      <c r="BX35" s="46"/>
-      <c r="BY35" s="46"/>
-      <c r="BZ35" s="46"/>
-      <c r="CA35" s="46"/>
-      <c r="CB35" s="46"/>
-      <c r="CC35" s="46"/>
-      <c r="CD35" s="46"/>
-      <c r="CE35" s="46"/>
-      <c r="CF35" s="46"/>
-      <c r="CG35" s="46"/>
-      <c r="CH35" s="46"/>
-      <c r="CI35" s="46"/>
-      <c r="CJ35" s="46"/>
-      <c r="CK35" s="46"/>
-      <c r="CL35" s="46"/>
-      <c r="CM35" s="46"/>
-      <c r="CN35" s="46"/>
-      <c r="CO35" s="46"/>
-      <c r="CP35" s="46"/>
-      <c r="CQ35" s="46"/>
-      <c r="CR35" s="46"/>
-      <c r="CS35" s="46"/>
-      <c r="CT35" s="46"/>
-      <c r="CU35" s="46"/>
-      <c r="CV35" s="46"/>
-      <c r="CW35" s="46"/>
-      <c r="CX35" s="46"/>
-      <c r="CY35" s="46"/>
-      <c r="CZ35" s="46"/>
-      <c r="DA35" s="46"/>
-      <c r="DB35" s="46"/>
-      <c r="DC35" s="46"/>
-      <c r="DD35" s="46"/>
-      <c r="DE35" s="46"/>
-      <c r="DF35" s="46"/>
-      <c r="DG35" s="46"/>
-      <c r="DH35" s="46"/>
-      <c r="DI35" s="46"/>
-      <c r="DJ35" s="46"/>
-      <c r="DK35" s="46"/>
-      <c r="DL35" s="46"/>
-      <c r="DM35" s="46"/>
-      <c r="DN35" s="46"/>
-      <c r="DO35" s="46"/>
-      <c r="DP35" s="46"/>
-      <c r="DQ35" s="46"/>
-      <c r="DR35" s="46"/>
-      <c r="DS35" s="46"/>
-      <c r="DT35" s="46"/>
-      <c r="DU35" s="46"/>
-      <c r="DV35" s="46"/>
-      <c r="DW35" s="46"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="44"/>
+      <c r="AJ35" s="44"/>
+      <c r="AK35" s="44"/>
+      <c r="AL35" s="44"/>
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="44"/>
+      <c r="AP35" s="44"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="44"/>
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="44"/>
+      <c r="AU35" s="44"/>
+      <c r="AV35" s="44"/>
+      <c r="AW35" s="44"/>
+      <c r="AX35" s="44"/>
+      <c r="AY35" s="44"/>
+      <c r="AZ35" s="44"/>
+      <c r="BA35" s="44"/>
+      <c r="BB35" s="44"/>
+      <c r="BC35" s="44"/>
+      <c r="BD35" s="44"/>
+      <c r="BE35" s="44"/>
+      <c r="BF35" s="44"/>
+      <c r="BG35" s="44"/>
+      <c r="BH35" s="44"/>
+      <c r="BI35" s="44"/>
+      <c r="BJ35" s="44"/>
+      <c r="BK35" s="44"/>
+      <c r="BL35" s="44"/>
+      <c r="BM35" s="44"/>
+      <c r="BN35" s="44"/>
+      <c r="BO35" s="44"/>
+      <c r="BP35" s="44"/>
+      <c r="BQ35" s="44"/>
+      <c r="BR35" s="44"/>
+      <c r="BS35" s="44"/>
+      <c r="BT35" s="44"/>
+      <c r="BU35" s="44"/>
+      <c r="BV35" s="44"/>
+      <c r="BW35" s="44"/>
+      <c r="BX35" s="44"/>
+      <c r="BY35" s="44"/>
+      <c r="BZ35" s="44"/>
+      <c r="CA35" s="44"/>
+      <c r="CB35" s="44"/>
+      <c r="CC35" s="44"/>
+      <c r="CD35" s="44"/>
+      <c r="CE35" s="44"/>
+      <c r="CF35" s="44"/>
+      <c r="CG35" s="44"/>
+      <c r="CH35" s="44"/>
+      <c r="CI35" s="44"/>
+      <c r="CJ35" s="44"/>
+      <c r="CK35" s="44"/>
+      <c r="CL35" s="44"/>
+      <c r="CM35" s="44"/>
+      <c r="CN35" s="44"/>
+      <c r="CO35" s="44"/>
+      <c r="CP35" s="44"/>
+      <c r="CQ35" s="44"/>
+      <c r="CR35" s="44"/>
+      <c r="CS35" s="44"/>
+      <c r="CT35" s="44"/>
+      <c r="CU35" s="44"/>
+      <c r="CV35" s="44"/>
+      <c r="CW35" s="44"/>
+      <c r="CX35" s="44"/>
+      <c r="CY35" s="44"/>
+      <c r="CZ35" s="44"/>
+      <c r="DA35" s="44"/>
+      <c r="DB35" s="44"/>
+      <c r="DC35" s="44"/>
+      <c r="DD35" s="44"/>
+      <c r="DE35" s="44"/>
+      <c r="DF35" s="44"/>
+      <c r="DG35" s="62"/>
+      <c r="DH35" s="62"/>
+      <c r="DI35" s="62"/>
+      <c r="DJ35" s="62"/>
+      <c r="DK35" s="62"/>
+      <c r="DL35" s="62"/>
+      <c r="DM35" s="62"/>
+      <c r="DN35" s="62"/>
+      <c r="DO35" s="62"/>
+      <c r="DP35" s="62"/>
+      <c r="DQ35" s="62"/>
+      <c r="DR35" s="62"/>
+      <c r="DS35" s="62"/>
+      <c r="DT35" s="62"/>
+      <c r="DU35" s="62"/>
+      <c r="DV35" s="62"/>
+      <c r="DW35" s="62"/>
     </row>
     <row r="36" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
@@ -3121,7 +3404,7 @@
       <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="47"/>
+      <c r="C36" s="45"/>
       <c r="D36" t="s">
         <v>45</v>
       </c>
@@ -3155,7 +3438,24 @@
       <c r="AU36" s="32"/>
       <c r="AV36" s="32"/>
       <c r="AW36" s="33"/>
-      <c r="BZ36" s="58"/>
+      <c r="BZ36" s="56"/>
+      <c r="DG36" s="62"/>
+      <c r="DH36" s="62"/>
+      <c r="DI36" s="62"/>
+      <c r="DJ36" s="62"/>
+      <c r="DK36" s="62"/>
+      <c r="DL36" s="62"/>
+      <c r="DM36" s="62"/>
+      <c r="DN36" s="62"/>
+      <c r="DO36" s="62"/>
+      <c r="DP36" s="62"/>
+      <c r="DQ36" s="62"/>
+      <c r="DR36" s="62"/>
+      <c r="DS36" s="62"/>
+      <c r="DT36" s="62"/>
+      <c r="DU36" s="62"/>
+      <c r="DV36" s="62"/>
+      <c r="DW36" s="62"/>
     </row>
     <row r="37" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
@@ -3163,6 +3463,23 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
+      <c r="DG37" s="62"/>
+      <c r="DH37" s="62"/>
+      <c r="DI37" s="62"/>
+      <c r="DJ37" s="62"/>
+      <c r="DK37" s="62"/>
+      <c r="DL37" s="62"/>
+      <c r="DM37" s="62"/>
+      <c r="DN37" s="62"/>
+      <c r="DO37" s="62"/>
+      <c r="DP37" s="62"/>
+      <c r="DQ37" s="62"/>
+      <c r="DR37" s="62"/>
+      <c r="DS37" s="62"/>
+      <c r="DT37" s="62"/>
+      <c r="DU37" s="62"/>
+      <c r="DV37" s="62"/>
+      <c r="DW37" s="62"/>
     </row>
     <row r="38" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
@@ -3170,6 +3487,23 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
+      <c r="DG38" s="62"/>
+      <c r="DH38" s="62"/>
+      <c r="DI38" s="62"/>
+      <c r="DJ38" s="62"/>
+      <c r="DK38" s="62"/>
+      <c r="DL38" s="62"/>
+      <c r="DM38" s="62"/>
+      <c r="DN38" s="62"/>
+      <c r="DO38" s="62"/>
+      <c r="DP38" s="62"/>
+      <c r="DQ38" s="62"/>
+      <c r="DR38" s="62"/>
+      <c r="DS38" s="62"/>
+      <c r="DT38" s="62"/>
+      <c r="DU38" s="62"/>
+      <c r="DV38" s="62"/>
+      <c r="DW38" s="62"/>
     </row>
     <row r="39" spans="1:127" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
